--- a/SAL.xlsx
+++ b/SAL.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="146">
   <si>
     <t>ODA</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>995/7590</t>
+  </si>
+  <si>
+    <t>manca</t>
   </si>
   <si>
     <t>staffe per 995/7590</t>
@@ -501,7 +504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,14 +534,6 @@
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -689,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -997,7 +992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,8 +1007,8 @@
     <col min="11" max="11" width="13.42578125" style="8" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" style="14" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="7" customWidth="1"/>
-    <col min="14" max="33" width="8.85546875" style="8" customWidth="1"/>
-    <col min="34" max="16384" width="8.85546875" style="8"/>
+    <col min="14" max="34" width="8.85546875" style="8" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,7 +1120,9 @@
       <c r="L3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M3"/>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
@@ -1141,10 +1138,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="20">
         <v>2</v>
@@ -1161,7 +1158,9 @@
       <c r="L4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -1177,10 +1176,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="20">
         <v>5</v>
@@ -1197,7 +1196,9 @@
       <c r="L5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -1213,10 +1214,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="20">
         <v>1</v>
@@ -1248,10 +1249,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="20">
         <v>5</v>
@@ -1268,7 +1269,9 @@
       <c r="L7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M7"/>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -1284,10 +1287,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="20">
         <v>22</v>
@@ -1304,7 +1307,9 @@
       <c r="L8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -1320,10 +1325,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="20">
         <v>2</v>
@@ -1340,7 +1345,9 @@
       <c r="L9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
@@ -1356,10 +1363,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="20">
         <v>11</v>
@@ -1391,10 +1398,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="20">
         <v>2</v>
@@ -1426,10 +1433,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="G12" s="20">
         <v>11</v>
@@ -1461,10 +1468,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="20">
         <v>18</v>
@@ -1496,10 +1503,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="20">
         <v>500</v>
@@ -1531,10 +1538,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="20">
         <v>24</v>
@@ -1566,10 +1573,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="20">
         <v>24</v>
@@ -1601,10 +1608,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="20">
         <v>114</v>
@@ -1636,10 +1643,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="G18" s="20">
         <v>188</v>
@@ -1671,10 +1678,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" s="20">
         <v>16</v>
@@ -1706,10 +1713,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="20">
         <v>10</v>
@@ -1741,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" s="20">
         <v>9</v>
@@ -1776,10 +1783,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" s="20">
         <v>4</v>
@@ -1811,10 +1818,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="20">
         <v>4</v>
@@ -1846,10 +1853,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" s="20">
         <v>2</v>
@@ -1881,10 +1888,10 @@
         <v>13</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" s="20">
         <v>2</v>
@@ -1916,10 +1923,10 @@
         <v>13</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26" s="20">
         <v>2</v>
@@ -1951,10 +1958,10 @@
         <v>13</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="20">
         <v>4</v>
@@ -1986,7 +1993,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G28" s="20">
         <v>3000</v>
@@ -2003,7 +2010,9 @@
       <c r="L28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="21"/>
+      <c r="M28" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
@@ -2019,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" s="20">
         <v>300</v>
@@ -2036,7 +2045,9 @@
       <c r="L29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="21"/>
+      <c r="M29" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
@@ -2052,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G30" s="20">
         <v>260</v>
@@ -2069,7 +2080,9 @@
       <c r="L30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M30" s="21"/>
+      <c r="M30" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
@@ -2085,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="20">
         <v>350</v>
@@ -2102,7 +2115,9 @@
       <c r="L31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="21"/>
+      <c r="M31" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
@@ -2118,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G32" s="20">
         <v>700</v>
@@ -2135,7 +2150,9 @@
       <c r="L32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="21"/>
+      <c r="M32" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
@@ -2151,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G33" s="20">
         <v>126</v>
@@ -2183,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G34" s="20">
         <v>126</v>
@@ -2215,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G35" s="20">
         <v>1748.818536585366</v>
@@ -2247,13 +2264,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G36" s="20">
         <v>1</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>17</v>
@@ -2279,16 +2296,16 @@
         <v>13</v>
       </c>
       <c r="E37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="20">
+        <v>16</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="20">
-        <v>16</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>17</v>
@@ -2314,16 +2331,16 @@
         <v>13</v>
       </c>
       <c r="E38" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="G38" s="20">
         <v>32</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>17</v>
@@ -2349,16 +2366,16 @@
         <v>13</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G39" s="20">
         <v>1</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>17</v>
@@ -2384,16 +2401,16 @@
         <v>13</v>
       </c>
       <c r="E40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>72</v>
       </c>
       <c r="G40" s="20">
         <v>2</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>17</v>
@@ -2419,13 +2436,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G41" s="20">
         <v>200</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>17</v>
@@ -2451,16 +2468,16 @@
         <v>13</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" s="20">
         <v>52.5</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>17</v>
@@ -2486,13 +2503,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" s="20">
         <v>52.5</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>17</v>
@@ -2518,13 +2535,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" s="20">
         <v>20</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>17</v>
@@ -2550,7 +2567,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" s="20">
         <v>75</v>
@@ -2582,10 +2599,10 @@
         <v>13</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G46" s="20">
         <v>4494.2196531791906</v>
@@ -2617,10 +2634,10 @@
         <v>13</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G47" s="20">
         <v>1</v>
@@ -2652,10 +2669,10 @@
         <v>13</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G48" s="20">
         <v>1</v>
@@ -2687,10 +2704,10 @@
         <v>13</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G49" s="20">
         <v>2</v>
@@ -2722,10 +2739,10 @@
         <v>13</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" s="20">
         <v>1</v>
@@ -2757,10 +2774,10 @@
         <v>13</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G51" s="20">
         <v>1</v>
@@ -2792,10 +2809,10 @@
         <v>13</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G52" s="20">
         <v>1</v>
@@ -2827,10 +2844,10 @@
         <v>13</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G53" s="20">
         <v>9</v>
@@ -2862,10 +2879,10 @@
         <v>13</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G54" s="20">
         <v>10</v>
@@ -2897,10 +2914,10 @@
         <v>13</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G55" s="20">
         <v>10</v>
@@ -2932,10 +2949,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G56" s="20">
         <v>2</v>
@@ -2967,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G57" s="20">
         <v>1</v>
@@ -2999,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G58" s="20">
         <v>1</v>
@@ -3031,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G59" s="20">
         <v>1</v>
@@ -3063,7 +3080,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G60" s="20">
         <v>1</v>
@@ -3095,7 +3112,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G61" s="20">
         <v>125</v>
@@ -3127,7 +3144,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G62" s="20">
         <v>250</v>
@@ -3159,10 +3176,10 @@
         <v>13</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G63" s="20">
         <v>28</v>
@@ -3194,10 +3211,10 @@
         <v>13</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G64" s="20">
         <v>500</v>
@@ -3229,10 +3246,10 @@
         <v>13</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G65" s="20">
         <v>500</v>
@@ -3264,10 +3281,10 @@
         <v>13</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G66" s="20">
         <v>200</v>
@@ -3299,10 +3316,10 @@
         <v>13</v>
       </c>
       <c r="E67" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="G67" s="20">
         <v>200</v>
@@ -3334,10 +3351,10 @@
         <v>13</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G68" s="20">
         <v>200</v>
@@ -3369,10 +3386,10 @@
         <v>13</v>
       </c>
       <c r="E69" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="G69" s="20">
         <v>200</v>
@@ -3404,10 +3421,10 @@
         <v>13</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G70" s="20">
         <v>400</v>
@@ -3439,10 +3456,10 @@
         <v>13</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G71" s="20">
         <v>9</v>
@@ -3474,10 +3491,10 @@
         <v>13</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G72" s="20">
         <v>3</v>
@@ -3509,10 +3526,10 @@
         <v>13</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G73" s="20">
         <v>2</v>
@@ -3544,10 +3561,10 @@
         <v>13</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G74" s="20">
         <v>3</v>
@@ -3579,10 +3596,10 @@
         <v>13</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G75" s="20">
         <v>3</v>
@@ -3614,10 +3631,10 @@
         <v>13</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G76" s="20">
         <v>1</v>
@@ -3660,13 +3677,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3674,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3682,20 +3699,20 @@
         <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,80 +3720,80 @@
         <v>16</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">

--- a/SAL.xlsx
+++ b/SAL.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="112">
   <si>
     <t>ODA</t>
   </si>
@@ -104,7 +104,7 @@
     <t>Unica</t>
   </si>
   <si>
-    <t>995/8180</t>
+    <t>805/0170</t>
   </si>
   <si>
     <t>MaCeP</t>
@@ -122,205 +122,202 @@
     <t>x</t>
   </si>
   <si>
-    <t>995/7590</t>
-  </si>
-  <si>
-    <t>manca</t>
-  </si>
-  <si>
-    <t>staffe per 995/7590</t>
-  </si>
-  <si>
-    <t>995/7880</t>
-  </si>
-  <si>
-    <t>staffe per 995/8180</t>
-  </si>
-  <si>
-    <t>995/8190</t>
-  </si>
-  <si>
-    <t>monitor kvm + adapter video</t>
-  </si>
-  <si>
-    <t>IP.AI.E.1002.B</t>
-  </si>
-  <si>
-    <t>monitor led</t>
-  </si>
-  <si>
-    <t>995/7710</t>
-  </si>
-  <si>
-    <t>supporti 170 mm ind binario marc. 2-3-4 x 12 pz, supporti 260 mm monitor led marc. 2-3-4 x6 pz, piedistallo 32" DM x 2 pz, n°12 spessori 10 mm indi binario marc. 2-3-4 x 2 pz)</t>
-  </si>
-  <si>
-    <t>carpenterie per fissaggio a muro monitor led 8-9 binario e monitor tft 47" 1° marciapiedi</t>
-  </si>
-  <si>
-    <t>995/7960</t>
-  </si>
-  <si>
-    <t>cassetto ottico 13" 1U 24 sc dplx</t>
-  </si>
-  <si>
-    <t>TC.ST.H.1001.A</t>
-  </si>
-  <si>
-    <t>posa cassetto ottico 13" 1U 24 sc dplx</t>
-  </si>
-  <si>
-    <t>TC.ST.H.2001.A</t>
-  </si>
-  <si>
-    <t>posa cassetto ottico 13" 1U 12 sc dplx</t>
-  </si>
-  <si>
-    <t>passapermute</t>
-  </si>
-  <si>
-    <t>IP.AI.E.1002.C</t>
-  </si>
-  <si>
-    <t>pigtail</t>
-  </si>
-  <si>
-    <t>TC.ST.H.3105.A</t>
-  </si>
-  <si>
-    <t>cavo breakout 50 mt mm</t>
-  </si>
-  <si>
-    <t>TC.ST.H.3105.D</t>
-  </si>
-  <si>
-    <t>bretella bifibra 5 mt mm sc-lc</t>
-  </si>
-  <si>
-    <t>TC.ST.H.3105.B</t>
-  </si>
-  <si>
-    <t>bretella bifibra 5 mt mm sc-sc</t>
-  </si>
-  <si>
-    <t>box 4 ui int</t>
-  </si>
-  <si>
-    <t>box 4 ui out</t>
-  </si>
-  <si>
-    <t>box 8 ui out</t>
-  </si>
-  <si>
-    <t>cassetto ottico 19" 1U 24 sc dplx</t>
-  </si>
-  <si>
-    <t>multiprese per rack attivo</t>
+    <t>814/2600</t>
+  </si>
+  <si>
+    <t>814/2610</t>
+  </si>
+  <si>
+    <t>814/2700</t>
+  </si>
+  <si>
+    <t>814/2710</t>
+  </si>
+  <si>
+    <t>814/6950</t>
+  </si>
+  <si>
+    <t>814/6960</t>
+  </si>
+  <si>
+    <t>823/6110</t>
+  </si>
+  <si>
+    <t>844/1660</t>
+  </si>
+  <si>
+    <t>EI.AC.C.1 01.A</t>
+  </si>
+  <si>
+    <t>EI.AC.C.1 02.B</t>
+  </si>
+  <si>
+    <t>EI.AC.D.1 03.B</t>
+  </si>
+  <si>
+    <t>EI.AC.D.1 03.C</t>
+  </si>
+  <si>
+    <t>EI.AC.I.2 09.A</t>
+  </si>
+  <si>
+    <t>EI.AC.I.2 09.B</t>
+  </si>
+  <si>
+    <t>EI.AC.I.2 23.A</t>
+  </si>
+  <si>
+    <t>EI.AC.M.1102.G</t>
+  </si>
+  <si>
+    <t>EI.AC.M.1102.K</t>
+  </si>
+  <si>
+    <t>EI.AC.M.1103.C</t>
+  </si>
+  <si>
+    <t>EI.AC.S.1100.B</t>
+  </si>
+  <si>
+    <t>EI.AL.T.1 02.M</t>
+  </si>
+  <si>
+    <t>EI.AL.T.1 02.O</t>
+  </si>
+  <si>
+    <t>EI.AL.T.2 05.A</t>
+  </si>
+  <si>
+    <t>EI.AL.T.2 05.B</t>
+  </si>
+  <si>
+    <t>EI.AV.C.2106.B</t>
+  </si>
+  <si>
+    <t>EI.AV.M.1 11.A</t>
+  </si>
+  <si>
+    <t>EI.AV.M.1 11.C</t>
+  </si>
+  <si>
+    <t>EI.AV.M.1 11.D</t>
+  </si>
+  <si>
+    <t>EI.AV.M.1 12.A</t>
+  </si>
+  <si>
+    <t>EI.AV.M.1 12.D</t>
+  </si>
+  <si>
+    <t>EI.AV.M.2 21.A</t>
+  </si>
+  <si>
+    <t>EI.AV.S.1115.G</t>
+  </si>
+  <si>
+    <t>EI.CA.P.2 03.B</t>
+  </si>
+  <si>
+    <t>EI.CA.P.5 04.B</t>
+  </si>
+  <si>
+    <t>EI.CV.P.2 01.A</t>
+  </si>
+  <si>
+    <t>EI.CV.P.2100.A</t>
+  </si>
+  <si>
+    <t>EI.CV.P.5 12.A</t>
+  </si>
+  <si>
+    <t>EI.IM.I.3 08.A</t>
+  </si>
+  <si>
+    <t>EI.LV.F.6 01.A</t>
+  </si>
+  <si>
+    <t>EI.QE.A.1100.A</t>
+  </si>
+  <si>
+    <t>EI.QE.A.1100.B</t>
+  </si>
+  <si>
+    <t>EI.QE.A.1101.A</t>
+  </si>
+  <si>
+    <t>EI.QE.B.1 01.A</t>
+  </si>
+  <si>
+    <t>EI.QE.B.1 01.C</t>
+  </si>
+  <si>
+    <t>EI.QE.B.1 03.A</t>
+  </si>
+  <si>
+    <t>EI.QE.B.2 06.A</t>
+  </si>
+  <si>
+    <t>EI.QE.B.2 09.A</t>
+  </si>
+  <si>
+    <t>EI.QE.B.2100.A</t>
+  </si>
+  <si>
+    <t>EI.TU.G.1100.F</t>
+  </si>
+  <si>
+    <t>EI.TU.G.2100.A</t>
   </si>
   <si>
     <t>IP.AI.E.1002.A</t>
   </si>
   <si>
-    <t>moc 2000</t>
-  </si>
-  <si>
-    <t>prolunghe vga fornite su richiesta di biesso</t>
-  </si>
-  <si>
-    <t>IP.AI.G.3001.B</t>
-  </si>
-  <si>
-    <t>bretella bifibra sc - lc 5 m smr</t>
-  </si>
-  <si>
-    <t>Bretella SC/PC-LC/PC con clip duplex cavo duplex SMR giallo lunghezza 15 metro</t>
-  </si>
-  <si>
-    <t>TC.ST.H.3105.C</t>
-  </si>
-  <si>
-    <t>814/2710</t>
-  </si>
-  <si>
-    <t>814/2720</t>
-  </si>
-  <si>
-    <t>814/2730</t>
-  </si>
-  <si>
-    <t>814/7320</t>
-  </si>
-  <si>
-    <t>814/7470</t>
-  </si>
-  <si>
-    <t>EI.CA.M.2 02.B</t>
-  </si>
-  <si>
-    <t>EI.CA.M.2 02.D</t>
-  </si>
-  <si>
-    <t>EI.CA.M.1 01.A</t>
-  </si>
-  <si>
-    <t>OS.IF.A.0102.A</t>
+    <t>IP.AI.F.1002.A</t>
+  </si>
+  <si>
+    <t>IT.TF.G.3000.A</t>
+  </si>
+  <si>
+    <t>OS.CI.A.0105.A</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Muletto elettrico per posa carpenterie primo marciapiede 30 - 31/10</t>
-  </si>
-  <si>
-    <t>OS.AP.M.0101.A</t>
-  </si>
-  <si>
-    <t>Muletto elettrico dal 2/11 al 07/11 per posa canala 1° marciapiede</t>
-  </si>
-  <si>
-    <t>Attività civili locale tecnico</t>
-  </si>
-  <si>
-    <t>OS.AP.C.0101.A</t>
-  </si>
-  <si>
-    <t>per Posa carpenteria 1° marciapiede</t>
-  </si>
-  <si>
-    <t>OS.AP.A.0106.A</t>
-  </si>
-  <si>
-    <t>Rete metallica area di cantiere</t>
-  </si>
-  <si>
-    <t>OS.AP.A.0114.A</t>
-  </si>
-  <si>
-    <t>OS.AP.A.0103.A</t>
-  </si>
-  <si>
-    <t>OS.MS.B.0106.A</t>
-  </si>
-  <si>
-    <t>BA.LG.A.1 02.C</t>
-  </si>
-  <si>
-    <t>carpenteria primo marciapiede</t>
-  </si>
-  <si>
-    <t>BA.ME.A.1006.F</t>
-  </si>
-  <si>
-    <t>web alarm</t>
-  </si>
-  <si>
-    <t>IP.AI.F.1002.A</t>
-  </si>
-  <si>
-    <t>TC.VP.B.2101.A</t>
-  </si>
-  <si>
-    <t>IT.TF.G.3000.A</t>
+    <t>OS.MC.A.0102.A</t>
+  </si>
+  <si>
+    <t>OS.MP.C.0101.A</t>
+  </si>
+  <si>
+    <t>OS.MP.G.0101.A</t>
+  </si>
+  <si>
+    <t>OS.MS.D.0104.B</t>
+  </si>
+  <si>
+    <t>OS.MS.F.0101.E</t>
+  </si>
+  <si>
+    <t>TC.CS.A.1002.A</t>
+  </si>
+  <si>
+    <t>TC.RR.E.1002.A</t>
+  </si>
+  <si>
+    <t>TC.RR.E.1002.I</t>
+  </si>
+  <si>
+    <t>TC.RR.E.1002.K</t>
+  </si>
+  <si>
+    <t>TC.RR.F.1005.A</t>
+  </si>
+  <si>
+    <t>TC.RR.F.1006.A</t>
+  </si>
+  <si>
+    <t>TC.ST.A.3001.B</t>
   </si>
   <si>
     <t>TC.TS.C.1003.A</t>
@@ -329,109 +326,10 @@
     <t>TC.TS.C.2003.A</t>
   </si>
   <si>
-    <t>TC.RR.E.1002.I</t>
-  </si>
-  <si>
-    <t>TRAFO ISOL. 20 KVA</t>
-  </si>
-  <si>
-    <t>EI.AL.T.1 02.N</t>
-  </si>
-  <si>
-    <t>TRAFO ISOL 30 KVA</t>
-  </si>
-  <si>
-    <t>EI.AL.T.1 02.O</t>
-  </si>
-  <si>
-    <t>BOX TRAFO ISOL</t>
-  </si>
-  <si>
-    <t>EI.AV.A.1 02.A</t>
-  </si>
-  <si>
-    <t>EI.LV.P.3 03.A</t>
-  </si>
-  <si>
-    <t>IT.TU.F.3004.E</t>
-  </si>
-  <si>
-    <t>IT.TU.F.3004.J</t>
-  </si>
-  <si>
-    <t>IT.TU.F.3004.O</t>
-  </si>
-  <si>
-    <t>BA.LG.A.1 04.B</t>
-  </si>
-  <si>
-    <t>barre filettate</t>
-  </si>
-  <si>
-    <t>1,5MMQ</t>
-  </si>
-  <si>
-    <t>EI.AV.M.1 16.A</t>
-  </si>
-  <si>
-    <t>2,5MMQ</t>
-  </si>
-  <si>
-    <t>EI.AV.M.1 16.B</t>
-  </si>
-  <si>
-    <t>4MMQ</t>
-  </si>
-  <si>
-    <t>EI.AV.M.1 16.C</t>
-  </si>
-  <si>
-    <t>6MMQ</t>
-  </si>
-  <si>
-    <t>10 MMQ</t>
-  </si>
-  <si>
-    <t>EI.AV.M.1 01.A</t>
-  </si>
-  <si>
-    <t>16MMQ</t>
-  </si>
-  <si>
-    <t>25MMQ</t>
-  </si>
-  <si>
-    <t>EI.AV.M.1 01.B</t>
-  </si>
-  <si>
-    <t>indicatori sottopasso venezia</t>
-  </si>
-  <si>
-    <t>IP.DV.B.5000.A</t>
-  </si>
-  <si>
-    <t>monitor sottopasso venezia</t>
-  </si>
-  <si>
-    <t>IP.DV.E.5000.A</t>
-  </si>
-  <si>
-    <t>IP.DV.G.2000.A</t>
-  </si>
-  <si>
-    <t>Spostamento telecamere sottopasso venezia</t>
-  </si>
-  <si>
-    <t>TC.VS.A.2001.A</t>
-  </si>
-  <si>
-    <t>TC.VS.A.2003.A</t>
-  </si>
-  <si>
-    <t>8 - 9 binario / 5° marciapiede</t>
-  </si>
-  <si>
-    <t>IP.DV.E.2000.B</t>
+    <t>TC.VS.E.1001.F</t>
+  </si>
+  <si>
+    <t>Tariffa DM 17.06.2016 n.50</t>
   </si>
   <si>
     <t>Ed.Tariffe</t>
@@ -684,7 +582,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -988,11 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,8 +907,8 @@
     <col min="11" max="11" width="13.42578125" style="8" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" style="14" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="7" customWidth="1"/>
-    <col min="14" max="34" width="8.85546875" style="8" customWidth="1"/>
-    <col min="35" max="16384" width="8.85546875" style="8"/>
+    <col min="14" max="43" width="8.85546875" style="8" customWidth="1"/>
+    <col min="44" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,7 +954,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B2" s="20">
         <v>10</v>
@@ -1070,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>15</v>
@@ -1090,7 +990,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B3" s="20">
         <v>10</v>
@@ -1106,7 +1006,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="20">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>15</v>
@@ -1121,12 +1021,12 @@
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B4" s="20">
         <v>10</v>
@@ -1137,14 +1037,12 @@
       <c r="D4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="20">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>15</v>
@@ -1159,12 +1057,12 @@
         <v>18</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B5" s="20">
         <v>10</v>
@@ -1175,14 +1073,12 @@
       <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="20">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>15</v>
@@ -1197,12 +1093,12 @@
         <v>18</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B6" s="20">
         <v>10</v>
@@ -1213,14 +1109,15 @@
       <c r="D6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6" s="20">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>16</v>
@@ -1231,13 +1128,13 @@
       <c r="L6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B7" s="20">
         <v>10</v>
@@ -1248,14 +1145,12 @@
       <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" s="20">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>15</v>
@@ -1269,13 +1164,13 @@
       <c r="L7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
-        <v>21</v>
+      <c r="M7" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B8" s="20">
         <v>10</v>
@@ -1286,14 +1181,12 @@
       <c r="D8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="20">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>15</v>
@@ -1308,12 +1201,12 @@
         <v>18</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B9" s="20">
         <v>10</v>
@@ -1324,14 +1217,12 @@
       <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G9" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>15</v>
@@ -1346,12 +1237,12 @@
         <v>18</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B10" s="20">
         <v>10</v>
@@ -1362,14 +1253,15 @@
       <c r="D10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G10" s="20">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>16</v>
@@ -1379,14 +1271,11 @@
       </c>
       <c r="L10" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B11" s="20">
         <v>10</v>
@@ -1397,14 +1286,12 @@
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G11" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>16</v>
@@ -1421,7 +1308,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B12" s="20">
         <v>10</v>
@@ -1432,14 +1319,12 @@
       <c r="D12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G12" s="20">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>16</v>
@@ -1456,7 +1341,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B13" s="20">
         <v>10</v>
@@ -1467,11 +1352,9 @@
       <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G13" s="20">
         <v>18</v>
@@ -1491,7 +1374,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B14" s="20">
         <v>10</v>
@@ -1502,14 +1385,12 @@
       <c r="D14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G14" s="20">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>16</v>
@@ -1526,7 +1407,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B15" s="20">
         <v>10</v>
@@ -1537,14 +1418,12 @@
       <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>42</v>
-      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G15" s="20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>16</v>
@@ -1561,7 +1440,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B16" s="20">
         <v>10</v>
@@ -1572,14 +1451,11 @@
       <c r="D16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" s="20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G16" s="20">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>16</v>
@@ -1596,7 +1472,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B17" s="20">
         <v>10</v>
@@ -1607,14 +1483,11 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G17" s="20">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>16</v>
@@ -1631,7 +1504,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B18" s="20">
         <v>10</v>
@@ -1642,14 +1515,11 @@
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G18" s="20">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>16</v>
@@ -1666,7 +1536,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B19" s="20">
         <v>10</v>
@@ -1677,14 +1547,11 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="20">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>16</v>
@@ -1701,7 +1568,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B20" s="20">
         <v>10</v>
@@ -1712,11 +1579,8 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G20" s="20">
         <v>10</v>
@@ -1736,7 +1600,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B21" s="20">
         <v>10</v>
@@ -1747,14 +1611,11 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="F21" s="20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G21" s="20">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>16</v>
@@ -1771,7 +1632,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B22" s="20">
         <v>10</v>
@@ -1782,14 +1643,11 @@
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" s="20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G22" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>16</v>
@@ -1806,7 +1664,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B23" s="20">
         <v>10</v>
@@ -1817,14 +1675,11 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G23" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>16</v>
@@ -1841,7 +1696,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B24" s="20">
         <v>10</v>
@@ -1852,14 +1707,11 @@
       <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G24" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>16</v>
@@ -1876,7 +1728,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B25" s="20">
         <v>10</v>
@@ -1887,14 +1739,11 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>54</v>
-      </c>
       <c r="F25" s="20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G25" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>16</v>
@@ -1911,7 +1760,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B26" s="20">
         <v>10</v>
@@ -1922,14 +1771,11 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="F26" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G26" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>16</v>
@@ -1946,7 +1792,7 @@
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B27" s="20">
         <v>10</v>
@@ -1957,14 +1803,11 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="20" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G27" s="20">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>16</v>
@@ -1981,7 +1824,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B28" s="20">
         <v>10</v>
@@ -1993,13 +1836,10 @@
         <v>13</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G28" s="20">
-        <v>3000</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>16</v>
@@ -2010,13 +1850,13 @@
       <c r="L28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="21" t="s">
-        <v>21</v>
+      <c r="M28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B29" s="20">
         <v>10</v>
@@ -2028,13 +1868,10 @@
         <v>13</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G29" s="20">
-        <v>300</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J29" s="20" t="s">
         <v>16</v>
@@ -2045,13 +1882,13 @@
       <c r="L29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="21" t="s">
-        <v>21</v>
+      <c r="M29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B30" s="20">
         <v>10</v>
@@ -2063,13 +1900,10 @@
         <v>13</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G30" s="20">
-        <v>260</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>16</v>
@@ -2080,13 +1914,13 @@
       <c r="L30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M30" s="21" t="s">
-        <v>21</v>
+      <c r="M30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B31" s="20">
         <v>10</v>
@@ -2098,13 +1932,10 @@
         <v>13</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G31" s="20">
-        <v>350</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>16</v>
@@ -2115,13 +1946,13 @@
       <c r="L31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="21" t="s">
-        <v>21</v>
+      <c r="M31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B32" s="20">
         <v>10</v>
@@ -2133,13 +1964,10 @@
         <v>13</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G32" s="20">
-        <v>700</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>16</v>
@@ -2150,13 +1978,13 @@
       <c r="L32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="21" t="s">
-        <v>21</v>
+      <c r="M32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B33" s="20">
         <v>10</v>
@@ -2168,10 +1996,10 @@
         <v>13</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G33" s="20">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>16</v>
@@ -2188,7 +2016,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B34" s="20">
         <v>10</v>
@@ -2200,10 +2028,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G34" s="20">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>16</v>
@@ -2220,7 +2048,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B35" s="20">
         <v>10</v>
@@ -2232,10 +2060,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G35" s="20">
-        <v>1748.818536585366</v>
+        <v>110</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>16</v>
@@ -2252,7 +2080,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B36" s="20">
         <v>10</v>
@@ -2264,13 +2092,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G36" s="20">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>17</v>
@@ -2284,7 +2112,7 @@
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B37" s="20">
         <v>10</v>
@@ -2295,17 +2123,14 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="F37" s="20" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G37" s="20">
-        <v>16</v>
+        <v>1221</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>17</v>
@@ -2319,7 +2144,7 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B38" s="20">
         <v>10</v>
@@ -2330,17 +2155,14 @@
       <c r="D38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="F38" s="20" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G38" s="20">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>17</v>
@@ -2354,7 +2176,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B39" s="20">
         <v>10</v>
@@ -2365,17 +2187,14 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>72</v>
-      </c>
       <c r="F39" s="20" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G39" s="20">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>17</v>
@@ -2389,7 +2208,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B40" s="20">
         <v>10</v>
@@ -2400,17 +2219,14 @@
       <c r="D40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="F40" s="20" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G40" s="20">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>17</v>
@@ -2424,7 +2240,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B41" s="20">
         <v>10</v>
@@ -2436,13 +2252,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G41" s="20">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>17</v>
@@ -2456,7 +2272,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B42" s="20">
         <v>10</v>
@@ -2467,17 +2283,14 @@
       <c r="D42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="F42" s="20" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G42" s="20">
-        <v>52.5</v>
+        <v>11</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>17</v>
@@ -2491,7 +2304,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B43" s="20">
         <v>10</v>
@@ -2503,13 +2316,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G43" s="20">
-        <v>52.5</v>
+        <v>6</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>17</v>
@@ -2523,7 +2336,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B44" s="20">
         <v>10</v>
@@ -2535,13 +2348,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G44" s="20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>17</v>
@@ -2555,7 +2368,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B45" s="20">
         <v>10</v>
@@ -2567,10 +2380,10 @@
         <v>13</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G45" s="20">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="J45" s="20" t="s">
         <v>16</v>
@@ -2587,7 +2400,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B46" s="20">
         <v>10</v>
@@ -2598,14 +2411,11 @@
       <c r="D46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="F46" s="20" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G46" s="20">
-        <v>4494.2196531791906</v>
+        <v>30</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>16</v>
@@ -2622,7 +2432,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B47" s="20">
         <v>10</v>
@@ -2633,14 +2443,11 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="F47" s="20" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G47" s="20">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>16</v>
@@ -2657,7 +2464,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B48" s="20">
         <v>10</v>
@@ -2668,14 +2475,11 @@
       <c r="D48" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="F48" s="20" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G48" s="20">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>16</v>
@@ -2692,7 +2496,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B49" s="20">
         <v>10</v>
@@ -2703,14 +2507,11 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="F49" s="20" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G49" s="20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J49" s="20" t="s">
         <v>16</v>
@@ -2727,7 +2528,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B50" s="20">
         <v>10</v>
@@ -2738,14 +2539,11 @@
       <c r="D50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="F50" s="20" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G50" s="20">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>16</v>
@@ -2762,7 +2560,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B51" s="20">
         <v>10</v>
@@ -2773,14 +2571,11 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="F51" s="20" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G51" s="20">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>16</v>
@@ -2797,7 +2592,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B52" s="20">
         <v>10</v>
@@ -2808,14 +2603,11 @@
       <c r="D52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="F52" s="20" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G52" s="20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J52" s="20" t="s">
         <v>16</v>
@@ -2832,7 +2624,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B53" s="20">
         <v>10</v>
@@ -2843,14 +2635,11 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="F53" s="20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G53" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>16</v>
@@ -2867,7 +2656,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B54" s="20">
         <v>10</v>
@@ -2878,14 +2667,11 @@
       <c r="D54" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="F54" s="20" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G54" s="20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J54" s="20" t="s">
         <v>16</v>
@@ -2902,7 +2688,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B55" s="20">
         <v>10</v>
@@ -2913,17 +2699,14 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>92</v>
-      </c>
       <c r="F55" s="20" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G55" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>17</v>
@@ -2937,7 +2720,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B56" s="20">
         <v>10</v>
@@ -2948,17 +2731,14 @@
       <c r="D56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>94</v>
-      </c>
       <c r="F56" s="20" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G56" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>17</v>
@@ -2972,7 +2752,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B57" s="20">
         <v>10</v>
@@ -2984,13 +2764,13 @@
         <v>13</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G57" s="20">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>17</v>
@@ -3004,7 +2784,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B58" s="20">
         <v>10</v>
@@ -3016,13 +2796,13 @@
         <v>13</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G58" s="20">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>17</v>
@@ -3036,7 +2816,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B59" s="20">
         <v>10</v>
@@ -3048,13 +2828,13 @@
         <v>13</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G59" s="20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>17</v>
@@ -3068,7 +2848,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B60" s="20">
         <v>10</v>
@@ -3080,13 +2860,13 @@
         <v>13</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G60" s="20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>17</v>
@@ -3100,7 +2880,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B61" s="20">
         <v>10</v>
@@ -3112,10 +2892,10 @@
         <v>13</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G61" s="20">
-        <v>125</v>
+        <v>430</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>16</v>
@@ -3132,7 +2912,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B62" s="20">
         <v>10</v>
@@ -3144,10 +2924,10 @@
         <v>13</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G62" s="20">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="J62" s="20" t="s">
         <v>16</v>
@@ -3164,7 +2944,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B63" s="20">
         <v>10</v>
@@ -3175,14 +2955,11 @@
       <c r="D63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="F63" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G63" s="20">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J63" s="20" t="s">
         <v>16</v>
@@ -3199,7 +2976,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B64" s="20">
         <v>10</v>
@@ -3210,14 +2987,11 @@
       <c r="D64" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="18" t="s">
-        <v>102</v>
-      </c>
       <c r="F64" s="20" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G64" s="20">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>16</v>
@@ -3234,7 +3008,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B65" s="20">
         <v>10</v>
@@ -3245,14 +3019,11 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="18" t="s">
-        <v>104</v>
-      </c>
       <c r="F65" s="20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G65" s="20">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="J65" s="20" t="s">
         <v>16</v>
@@ -3269,7 +3040,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B66" s="20">
         <v>10</v>
@@ -3280,14 +3051,11 @@
       <c r="D66" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="F66" s="20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G66" s="20">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="J66" s="20" t="s">
         <v>16</v>
@@ -3304,7 +3072,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B67" s="20">
         <v>10</v>
@@ -3315,14 +3083,11 @@
       <c r="D67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="18" t="s">
-        <v>108</v>
-      </c>
       <c r="F67" s="20" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G67" s="20">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>16</v>
@@ -3339,7 +3104,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B68" s="20">
         <v>10</v>
@@ -3350,14 +3115,11 @@
       <c r="D68" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="F68" s="20" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G68" s="20">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>16</v>
@@ -3374,7 +3136,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B69" s="20">
         <v>10</v>
@@ -3385,14 +3147,11 @@
       <c r="D69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="18" t="s">
-        <v>111</v>
-      </c>
       <c r="F69" s="20" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G69" s="20">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>16</v>
@@ -3409,7 +3168,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B70" s="20">
         <v>10</v>
@@ -3420,14 +3179,11 @@
       <c r="D70" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="F70" s="20" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G70" s="20">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="J70" s="20" t="s">
         <v>16</v>
@@ -3444,7 +3200,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
-        <v>5031012302</v>
+        <v>5031011905</v>
       </c>
       <c r="B71" s="20">
         <v>10</v>
@@ -3455,14 +3211,17 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="F71" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71" s="20">
-        <v>9</v>
+        <v>89</v>
+      </c>
+      <c r="G71" s="21">
+        <v>2629.23</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="20">
+        <v>1</v>
       </c>
       <c r="J71" s="20" t="s">
         <v>16</v>
@@ -3474,181 +3233,6 @@
         <v>18</v>
       </c>
       <c r="M71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
-        <v>5031012302</v>
-      </c>
-      <c r="B72" s="20">
-        <v>10</v>
-      </c>
-      <c r="C72" s="20">
-        <v>1</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G72" s="20">
-        <v>3</v>
-      </c>
-      <c r="J72" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L72" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
-        <v>5031012302</v>
-      </c>
-      <c r="B73" s="20">
-        <v>10</v>
-      </c>
-      <c r="C73" s="20">
-        <v>1</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G73" s="20">
-        <v>2</v>
-      </c>
-      <c r="J73" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L73" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
-        <v>5031012302</v>
-      </c>
-      <c r="B74" s="20">
-        <v>10</v>
-      </c>
-      <c r="C74" s="20">
-        <v>1</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G74" s="20">
-        <v>3</v>
-      </c>
-      <c r="J74" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L74" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
-        <v>5031012302</v>
-      </c>
-      <c r="B75" s="20">
-        <v>10</v>
-      </c>
-      <c r="C75" s="20">
-        <v>1</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G75" s="20">
-        <v>3</v>
-      </c>
-      <c r="J75" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L75" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
-        <v>5031012302</v>
-      </c>
-      <c r="B76" s="20">
-        <v>10</v>
-      </c>
-      <c r="C76" s="20">
-        <v>1</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G76" s="20">
-        <v>1</v>
-      </c>
-      <c r="J76" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M76" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3677,13 +3261,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3699,20 +3283,20 @@
         <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,80 +3304,80 @@
         <v>16</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="11" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="11" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">

--- a/SAL.xlsx
+++ b/SAL.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\GitHub\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E68C327-913D-412D-AD16-F8ADA7EEBCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD535067-CDA5-4BC5-87DB-623126EE8B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VDT" sheetId="1" r:id="rId1"/>
     <sheet name="Elenchi" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VDT!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VDT!$A$1:$M$159</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="248">
   <si>
     <t>ODA</t>
   </si>
@@ -798,7 +798,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,27 +1253,27 @@
   <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="17" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="17" customWidth="1"/>
-    <col min="8" max="10" width="8.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="7" customWidth="1"/>
-    <col min="14" max="46" width="8.85546875" style="8" customWidth="1"/>
-    <col min="47" max="16384" width="8.85546875" style="8"/>
+    <col min="2" max="3" width="8.88671875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="17" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="7" customWidth="1"/>
+    <col min="14" max="48" width="8.88671875" style="8" customWidth="1"/>
+    <col min="49" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="16" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:13" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>5031012302</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>5031012302</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>5031012302</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>5031012302</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>5031012302</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>5031012302</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5031012302</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>5031012302</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5031012302</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>5031012302</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>5031012302</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5031012302</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>5031012302</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>5031012302</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>5031012302</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>5031012302</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>5031012302</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>5031012302</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>5031012302</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>5031012302</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>5031012302</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>5031012302</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>5031012302</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>5031012302</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>5031012302</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>5031012302</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>5031012302</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>5031012302</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>5031012302</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>5031012302</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>5031012302</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>5031012302</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>5031012302</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>5031012302</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>5031012302</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>5031012302</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>5031012302</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>5031012302</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>5031012302</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>5031012302</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>5031012302</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>5031012302</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>5031012302</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>5031012302</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>5031012302</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>5031012302</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>5031012302</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>5031012302</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>5031012302</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>5031012302</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>5031012302</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>5031012302</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>5031012302</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>5031012302</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>5031012302</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>5031012302</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>5031012302</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>5031012302</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>5031012302</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>5031012302</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>5031012302</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>5031012302</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" customHeight="1">
+    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>5031012302</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="30" customHeight="1">
+    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>5031012302</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30" customHeight="1">
+    <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>5031012302</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30" customHeight="1">
+    <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>5031012302</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30" customHeight="1">
+    <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>5031012302</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30" customHeight="1">
+    <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>5031012302</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30" customHeight="1">
+    <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>5031012302</v>
       </c>
@@ -3686,9 +3686,11 @@
       <c r="L70" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M70"/>
-    </row>
-    <row r="71" spans="1:13" ht="30" customHeight="1">
+      <c r="M70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>5031012302</v>
       </c>
@@ -3719,8 +3721,11 @@
       <c r="L71" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="30" customHeight="1">
+      <c r="M71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>5031012302</v>
       </c>
@@ -3751,8 +3756,11 @@
       <c r="L72" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="30" customHeight="1">
+      <c r="M72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>5031012302</v>
       </c>
@@ -3783,8 +3791,11 @@
       <c r="L73" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="30" customHeight="1">
+      <c r="M73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>5031012302</v>
       </c>
@@ -3815,8 +3826,11 @@
       <c r="L74" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="30" customHeight="1">
+      <c r="M74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>5031012302</v>
       </c>
@@ -3847,8 +3861,11 @@
       <c r="L75" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="30" customHeight="1">
+      <c r="M75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>5031012302</v>
       </c>
@@ -3879,8 +3896,11 @@
       <c r="L76" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="30" customHeight="1">
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>5031012302</v>
       </c>
@@ -3911,8 +3931,11 @@
       <c r="L77" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="30" customHeight="1">
+      <c r="M77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>5031012302</v>
       </c>
@@ -3943,8 +3966,11 @@
       <c r="L78" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="30" customHeight="1">
+      <c r="M78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>5031012302</v>
       </c>
@@ -3975,8 +4001,11 @@
       <c r="L79" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="30" customHeight="1">
+      <c r="M79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>5031012302</v>
       </c>
@@ -4007,8 +4036,11 @@
       <c r="L80" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="30" customHeight="1">
+      <c r="M80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>5031012302</v>
       </c>
@@ -4039,8 +4071,11 @@
       <c r="L81" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="30" customHeight="1">
+      <c r="M81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>5031012302</v>
       </c>
@@ -4071,8 +4106,11 @@
       <c r="L82" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="30" customHeight="1">
+      <c r="M82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>5031012302</v>
       </c>
@@ -4103,8 +4141,11 @@
       <c r="L83" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="30" customHeight="1">
+      <c r="M83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>5031012302</v>
       </c>
@@ -4135,8 +4176,11 @@
       <c r="L84" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="30" customHeight="1">
+      <c r="M84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>5031012302</v>
       </c>
@@ -4167,8 +4211,11 @@
       <c r="L85" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>5031012302</v>
       </c>
@@ -4199,8 +4246,11 @@
       <c r="L86" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>5031012302</v>
       </c>
@@ -4228,8 +4278,11 @@
       <c r="L87" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>5031012302</v>
       </c>
@@ -4260,8 +4313,11 @@
       <c r="L88" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>5031012302</v>
       </c>
@@ -4292,8 +4348,11 @@
       <c r="L89" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>5031012302</v>
       </c>
@@ -4324,8 +4383,11 @@
       <c r="L90" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="30" customHeight="1">
+      <c r="M90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>5031012302</v>
       </c>
@@ -4356,8 +4418,11 @@
       <c r="L91" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
         <v>5031012302</v>
       </c>
@@ -4385,8 +4450,11 @@
       <c r="L92" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="15" customHeight="1">
+      <c r="M92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>5031012302</v>
       </c>
@@ -4414,8 +4482,11 @@
       <c r="L93" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="15" customHeight="1">
+      <c r="M93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17">
         <v>5031012302</v>
       </c>
@@ -4443,8 +4514,11 @@
       <c r="L94" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="15" customHeight="1">
+      <c r="M94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
         <v>5031012302</v>
       </c>
@@ -4472,8 +4546,11 @@
       <c r="L95" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="15" customHeight="1">
+      <c r="M95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
         <v>5031012302</v>
       </c>
@@ -4504,8 +4581,11 @@
       <c r="L96" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>5031012302</v>
       </c>
@@ -4536,8 +4616,11 @@
       <c r="L97" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="15" customHeight="1">
+      <c r="M97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
         <v>5031012302</v>
       </c>
@@ -4568,8 +4651,11 @@
       <c r="L98" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="15" customHeight="1">
+      <c r="M98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>5031012302</v>
       </c>
@@ -4600,8 +4686,11 @@
       <c r="L99" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="15" customHeight="1">
+      <c r="M99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>5031012302</v>
       </c>
@@ -4632,8 +4721,11 @@
       <c r="L100" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="15" customHeight="1">
+      <c r="M100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>5031012302</v>
       </c>
@@ -4664,8 +4756,11 @@
       <c r="L101" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
         <v>5031012302</v>
       </c>
@@ -4693,8 +4788,11 @@
       <c r="L102" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1">
+      <c r="M102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>5031012302</v>
       </c>
@@ -4725,8 +4823,11 @@
       <c r="L103" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1">
+      <c r="M103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>5031012302</v>
       </c>
@@ -4757,8 +4858,11 @@
       <c r="L104" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1">
+      <c r="M104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>5031012302</v>
       </c>
@@ -4789,8 +4893,11 @@
       <c r="L105" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1">
+      <c r="M105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>5031012302</v>
       </c>
@@ -4821,8 +4928,11 @@
       <c r="L106" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
         <v>5031012302</v>
       </c>
@@ -4853,8 +4963,11 @@
       <c r="L107" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
         <v>5031012302</v>
       </c>
@@ -4885,8 +4998,11 @@
       <c r="L108" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
         <v>5031012302</v>
       </c>
@@ -4917,8 +5033,11 @@
       <c r="L109" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
         <v>5031012302</v>
       </c>
@@ -4949,8 +5068,11 @@
       <c r="L110" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>5031012302</v>
       </c>
@@ -4981,8 +5103,11 @@
       <c r="L111" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
         <v>5031012302</v>
       </c>
@@ -5010,8 +5135,11 @@
       <c r="L112" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="17">
         <v>5031012302</v>
       </c>
@@ -5042,8 +5170,11 @@
       <c r="L113" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
         <v>5031012302</v>
       </c>
@@ -5074,8 +5205,11 @@
       <c r="L114" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
         <v>5031012302</v>
       </c>
@@ -5106,8 +5240,11 @@
       <c r="L115" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
         <v>5031012302</v>
       </c>
@@ -5138,8 +5275,11 @@
       <c r="L116" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="15" customHeight="1">
+      <c r="M116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>5031012302</v>
       </c>
@@ -5170,8 +5310,11 @@
       <c r="L117" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="15" customHeight="1">
+      <c r="M117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
         <v>5031012302</v>
       </c>
@@ -5202,8 +5345,11 @@
       <c r="L118" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="15" customHeight="1">
+      <c r="M118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
         <v>5031012302</v>
       </c>
@@ -5234,8 +5380,11 @@
       <c r="L119" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="15" customHeight="1">
+      <c r="M119" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
         <v>5031012302</v>
       </c>
@@ -5266,8 +5415,11 @@
       <c r="L120" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="15" customHeight="1">
+      <c r="M120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>5031012302</v>
       </c>
@@ -5295,8 +5447,11 @@
       <c r="L121" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="15" customHeight="1">
+      <c r="M121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
         <v>5031012302</v>
       </c>
@@ -5324,8 +5479,11 @@
       <c r="L122" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="15" customHeight="1">
+      <c r="M122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>5031012302</v>
       </c>
@@ -5356,8 +5514,11 @@
       <c r="L123" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="15" customHeight="1">
+      <c r="M123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>5031012302</v>
       </c>
@@ -5388,8 +5549,11 @@
       <c r="L124" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="15" customHeight="1">
+      <c r="M124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
         <v>5031012302</v>
       </c>
@@ -5420,8 +5584,11 @@
       <c r="L125" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="15" customHeight="1">
+      <c r="M125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
         <v>5031012302</v>
       </c>
@@ -5452,8 +5619,11 @@
       <c r="L126" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
         <v>5031012302</v>
       </c>
@@ -5484,8 +5654,11 @@
       <c r="L127" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
         <v>5031012302</v>
       </c>
@@ -5516,8 +5689,11 @@
       <c r="L128" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="17">
         <v>5031012302</v>
       </c>
@@ -5548,8 +5724,11 @@
       <c r="L129" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="17">
         <v>5031012302</v>
       </c>
@@ -5580,8 +5759,11 @@
       <c r="L130" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="17">
         <v>5031012302</v>
       </c>
@@ -5609,8 +5791,11 @@
       <c r="L131" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="17">
         <v>5031012302</v>
       </c>
@@ -5641,8 +5826,11 @@
       <c r="L132" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="30" customHeight="1">
+      <c r="M132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="17">
         <v>5031012302</v>
       </c>
@@ -5673,8 +5861,11 @@
       <c r="L133" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="17">
         <v>5031012302</v>
       </c>
@@ -5705,8 +5896,11 @@
       <c r="L134" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="30" customHeight="1">
+      <c r="M134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="17">
         <v>5031012302</v>
       </c>
@@ -5737,8 +5931,11 @@
       <c r="L135" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" ht="30" customHeight="1">
+      <c r="M135" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17">
         <v>5031012302</v>
       </c>
@@ -5769,8 +5966,11 @@
       <c r="L136" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="30" customHeight="1">
+      <c r="M136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="17">
         <v>5031012302</v>
       </c>
@@ -5801,8 +6001,11 @@
       <c r="L137" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="30" customHeight="1">
+      <c r="M137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="17">
         <v>5031012302</v>
       </c>
@@ -5833,8 +6036,11 @@
       <c r="L138" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="30" customHeight="1">
+      <c r="M138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="17">
         <v>5031012302</v>
       </c>
@@ -5865,8 +6071,11 @@
       <c r="L139" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="15" customHeight="1">
+      <c r="M139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="17">
         <v>5031012302</v>
       </c>
@@ -5897,8 +6106,11 @@
       <c r="L140" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="15" customHeight="1">
+      <c r="M140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="17">
         <v>5031012302</v>
       </c>
@@ -5929,8 +6141,11 @@
       <c r="L141" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" ht="15" customHeight="1">
+      <c r="M141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17">
         <v>5031012302</v>
       </c>
@@ -5961,8 +6176,11 @@
       <c r="L142" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="30" customHeight="1">
+      <c r="M142" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>5031012302</v>
       </c>
@@ -5993,8 +6211,11 @@
       <c r="L143" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="30" customHeight="1">
+      <c r="M143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17">
         <v>5031012302</v>
       </c>
@@ -6025,8 +6246,11 @@
       <c r="L144" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="15" customHeight="1">
+      <c r="M144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17">
         <v>5031012302</v>
       </c>
@@ -6057,8 +6281,11 @@
       <c r="L145" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="15" customHeight="1">
+      <c r="M145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17">
         <v>5031012302</v>
       </c>
@@ -6089,8 +6316,11 @@
       <c r="L146" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="30" customHeight="1">
+      <c r="M146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17">
         <v>5031012302</v>
       </c>
@@ -6121,8 +6351,11 @@
       <c r="L147" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="30" customHeight="1">
+      <c r="M147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17">
         <v>5031012302</v>
       </c>
@@ -6153,8 +6386,11 @@
       <c r="L148" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="30" customHeight="1">
+      <c r="M148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17">
         <v>5031012302</v>
       </c>
@@ -6185,8 +6421,11 @@
       <c r="L149" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="30" customHeight="1">
+      <c r="M149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17">
         <v>5031012302</v>
       </c>
@@ -6217,8 +6456,11 @@
       <c r="L150" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="30" customHeight="1">
+      <c r="M150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17">
         <v>5031012302</v>
       </c>
@@ -6249,8 +6491,11 @@
       <c r="L151" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="30" customHeight="1">
+      <c r="M151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17">
         <v>5031012302</v>
       </c>
@@ -6281,8 +6526,11 @@
       <c r="L152" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="30" customHeight="1">
+      <c r="M152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17">
         <v>5031012302</v>
       </c>
@@ -6313,8 +6561,11 @@
       <c r="L153" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="30" customHeight="1">
+      <c r="M153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="17">
         <v>5031012302</v>
       </c>
@@ -6345,8 +6596,11 @@
       <c r="L154" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="30" customHeight="1">
+      <c r="M154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="17">
         <v>5031012302</v>
       </c>
@@ -6377,8 +6631,11 @@
       <c r="L155" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="30" customHeight="1">
+      <c r="M155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="17">
         <v>5031012302</v>
       </c>
@@ -6409,8 +6666,11 @@
       <c r="L156" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="17">
         <v>5031012302</v>
       </c>
@@ -6441,8 +6701,11 @@
       <c r="L157" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="M157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="17">
         <v>5031012302</v>
       </c>
@@ -6474,7 +6737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="17">
         <v>5031012302</v>
       </c>
@@ -6507,11 +6770,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M159">
-      <sortCondition ref="F1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M159" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -6526,12 +6785,12 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6539,13 +6798,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="C2" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -6553,7 +6812,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -6561,12 +6820,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -6574,7 +6833,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6582,7 +6841,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>172</v>
       </c>
@@ -6590,72 +6849,72 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>18</v>
       </c>

--- a/SAL.xlsx
+++ b/SAL.xlsx
@@ -8,18 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD535067-CDA5-4BC5-87DB-623126EE8B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CB881-F020-4423-84D1-838687950C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VDT" sheetId="1" r:id="rId1"/>
     <sheet name="Elenchi" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VDT!$A$1:$M$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VDT!$A$1:$M$157</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="246">
   <si>
     <t>ODA</t>
   </si>
@@ -92,7 +105,7 @@
     <t>Q.E</t>
   </si>
   <si>
-    <t>814/2710*</t>
+    <t>814/2710</t>
   </si>
   <si>
     <t>MaCeP</t>
@@ -113,37 +126,37 @@
     <t>Alimentazione dispositivi video</t>
   </si>
   <si>
-    <t>814/2720*</t>
+    <t>814/2720</t>
   </si>
   <si>
     <t>manca</t>
   </si>
   <si>
-    <t>814/2730*</t>
-  </si>
-  <si>
-    <t>814/7470*</t>
+    <t>814/2730</t>
+  </si>
+  <si>
+    <t>814/7470</t>
   </si>
   <si>
     <t>Dispositivi video</t>
   </si>
   <si>
-    <t>995/7590*</t>
-  </si>
-  <si>
-    <t>995/7710*</t>
+    <t>995/7590</t>
+  </si>
+  <si>
+    <t>995/7710</t>
   </si>
   <si>
     <t>DDT 766 LEF - 9 staffe vesa x monitor tft o led</t>
   </si>
   <si>
-    <t>995/7880*</t>
+    <t>995/7880</t>
   </si>
   <si>
     <t>do</t>
   </si>
   <si>
-    <t>995/8180*</t>
+    <t>995/8180</t>
   </si>
   <si>
     <t>Locale tecnico</t>
@@ -719,15 +732,6 @@
     <t>materiale per ceccon: penna laser vlf</t>
   </si>
   <si>
-    <t>Progetto</t>
-  </si>
-  <si>
-    <t>Vedi allegato</t>
-  </si>
-  <si>
-    <t>progetto</t>
-  </si>
-  <si>
     <t>Ed.Tariffe</t>
   </si>
   <si>
@@ -792,13 +796,16 @@
   </si>
   <si>
     <t>ed_2022_11</t>
+  </si>
+  <si>
+    <t>riduzione di prezzo da applicare esclusivamente alla EI.CV.P.2 03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +828,14 @@
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -908,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -947,6 +962,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1250,30 +1267,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="17" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="17" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="7" customWidth="1"/>
-    <col min="14" max="48" width="8.88671875" style="8" customWidth="1"/>
-    <col min="49" max="16384" width="8.88671875" style="8"/>
+    <col min="2" max="3" width="8.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="17" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="7" customWidth="1"/>
+    <col min="14" max="49" width="8.85546875" style="8" customWidth="1"/>
+    <col min="50" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>5031012302</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>5031012302</v>
       </c>
@@ -1380,11 +1397,11 @@
       <c r="L3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>5031012302</v>
       </c>
@@ -1415,11 +1432,11 @@
       <c r="L4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>5031012302</v>
       </c>
@@ -1450,11 +1467,11 @@
       <c r="L5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5031012302</v>
       </c>
@@ -1485,11 +1502,11 @@
       <c r="L6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5031012302</v>
       </c>
@@ -1524,7 +1541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>5031012302</v>
       </c>
@@ -1559,7 +1576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>5031012302</v>
       </c>
@@ -1597,7 +1614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5031012302</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>5031012302</v>
       </c>
@@ -1667,7 +1684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>5031012302</v>
       </c>
@@ -1702,7 +1719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>5031012302</v>
       </c>
@@ -1737,7 +1754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>5031012302</v>
       </c>
@@ -1772,7 +1789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>5031012302</v>
       </c>
@@ -1807,7 +1824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>5031012302</v>
       </c>
@@ -1842,7 +1859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>5031012302</v>
       </c>
@@ -1877,7 +1894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>5031012302</v>
       </c>
@@ -1912,7 +1929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>5031012302</v>
       </c>
@@ -1947,7 +1964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>5031012302</v>
       </c>
@@ -1982,7 +1999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>5031012302</v>
       </c>
@@ -2014,7 +2031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>5031012302</v>
       </c>
@@ -2046,7 +2063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>5031012302</v>
       </c>
@@ -2078,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>5031012302</v>
       </c>
@@ -2113,7 +2130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>5031012302</v>
       </c>
@@ -2148,7 +2165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>5031012302</v>
       </c>
@@ -2183,7 +2200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>5031012302</v>
       </c>
@@ -2218,7 +2235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>5031012302</v>
       </c>
@@ -2253,7 +2270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>5031012302</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>5031012302</v>
       </c>
@@ -2320,7 +2337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>5031012302</v>
       </c>
@@ -2352,7 +2369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>5031012302</v>
       </c>
@@ -2384,7 +2401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>5031012302</v>
       </c>
@@ -2419,7 +2436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>5031012302</v>
       </c>
@@ -2454,7 +2471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>5031012302</v>
       </c>
@@ -2489,7 +2506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>5031012302</v>
       </c>
@@ -2524,7 +2541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>5031012302</v>
       </c>
@@ -2556,10 +2573,10 @@
         <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>5031012302</v>
       </c>
@@ -2591,10 +2608,10 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>5031012302</v>
       </c>
@@ -2626,10 +2643,10 @@
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>5031012302</v>
       </c>
@@ -2664,7 +2681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>5031012302</v>
       </c>
@@ -2699,7 +2716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>5031012302</v>
       </c>
@@ -2731,7 +2748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>5031012302</v>
       </c>
@@ -2766,7 +2783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>5031012302</v>
       </c>
@@ -2798,7 +2815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>5031012302</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>5031012302</v>
       </c>
@@ -2862,7 +2879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>5031012302</v>
       </c>
@@ -2897,7 +2914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>5031012302</v>
       </c>
@@ -2932,7 +2949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>5031012302</v>
       </c>
@@ -2967,7 +2984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>5031012302</v>
       </c>
@@ -3002,7 +3019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>5031012302</v>
       </c>
@@ -3037,7 +3054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>5031012302</v>
       </c>
@@ -3072,7 +3089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>5031012302</v>
       </c>
@@ -3104,10 +3121,10 @@
         <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>5031012302</v>
       </c>
@@ -3142,7 +3159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>5031012302</v>
       </c>
@@ -3177,7 +3194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>5031012302</v>
       </c>
@@ -3212,7 +3229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>5031012302</v>
       </c>
@@ -3247,7 +3264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>5031012302</v>
       </c>
@@ -3282,7 +3299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>5031012302</v>
       </c>
@@ -3317,7 +3334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>5031012302</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>5031012302</v>
       </c>
@@ -3381,7 +3398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>5031012302</v>
       </c>
@@ -3416,7 +3433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>5031012302</v>
       </c>
@@ -3448,7 +3465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>5031012302</v>
       </c>
@@ -3483,7 +3500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>5031012302</v>
       </c>
@@ -3518,7 +3535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>5031012302</v>
       </c>
@@ -3553,7 +3570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>5031012302</v>
       </c>
@@ -3588,7 +3605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>5031012302</v>
       </c>
@@ -3623,7 +3640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>5031012302</v>
       </c>
@@ -3655,10 +3672,10 @@
         <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>5031012302</v>
       </c>
@@ -3690,7 +3707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>5031012302</v>
       </c>
@@ -3725,7 +3742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>5031012302</v>
       </c>
@@ -3760,7 +3777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>5031012302</v>
       </c>
@@ -3795,7 +3812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>5031012302</v>
       </c>
@@ -3830,7 +3847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>5031012302</v>
       </c>
@@ -3865,7 +3882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>5031012302</v>
       </c>
@@ -3900,7 +3917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>5031012302</v>
       </c>
@@ -3935,7 +3952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>5031012302</v>
       </c>
@@ -3970,7 +3987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>5031012302</v>
       </c>
@@ -4005,7 +4022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>5031012302</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>5031012302</v>
       </c>
@@ -4075,7 +4092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>5031012302</v>
       </c>
@@ -4110,7 +4127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>5031012302</v>
       </c>
@@ -4145,7 +4162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>5031012302</v>
       </c>
@@ -4180,7 +4197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>5031012302</v>
       </c>
@@ -4215,7 +4232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>5031012302</v>
       </c>
@@ -4250,7 +4267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>5031012302</v>
       </c>
@@ -4282,7 +4299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>5031012302</v>
       </c>
@@ -4317,7 +4334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>5031012302</v>
       </c>
@@ -4352,7 +4369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>5031012302</v>
       </c>
@@ -4387,7 +4404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>5031012302</v>
       </c>
@@ -4422,7 +4439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>5031012302</v>
       </c>
@@ -4451,10 +4468,10 @@
         <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>5031012302</v>
       </c>
@@ -4486,7 +4503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>5031012302</v>
       </c>
@@ -4518,7 +4535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>5031012302</v>
       </c>
@@ -4550,7 +4567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>5031012302</v>
       </c>
@@ -4585,7 +4602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>5031012302</v>
       </c>
@@ -4620,7 +4637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>5031012302</v>
       </c>
@@ -4655,7 +4672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>5031012302</v>
       </c>
@@ -4690,7 +4707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>5031012302</v>
       </c>
@@ -4725,7 +4742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>5031012302</v>
       </c>
@@ -4760,7 +4777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>5031012302</v>
       </c>
@@ -4792,7 +4809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>5031012302</v>
       </c>
@@ -4827,7 +4844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>5031012302</v>
       </c>
@@ -4862,7 +4879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>5031012302</v>
       </c>
@@ -4897,7 +4914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>5031012302</v>
       </c>
@@ -4932,7 +4949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>5031012302</v>
       </c>
@@ -4967,7 +4984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>5031012302</v>
       </c>
@@ -5002,7 +5019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
         <v>5031012302</v>
       </c>
@@ -5037,7 +5054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>5031012302</v>
       </c>
@@ -5072,7 +5089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>5031012302</v>
       </c>
@@ -5107,7 +5124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>5031012302</v>
       </c>
@@ -5139,7 +5156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>5031012302</v>
       </c>
@@ -5174,7 +5191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>5031012302</v>
       </c>
@@ -5209,7 +5226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>5031012302</v>
       </c>
@@ -5244,7 +5261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>5031012302</v>
       </c>
@@ -5279,7 +5296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>5031012302</v>
       </c>
@@ -5314,7 +5331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>5031012302</v>
       </c>
@@ -5349,7 +5366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>5031012302</v>
       </c>
@@ -5384,7 +5401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>5031012302</v>
       </c>
@@ -5419,7 +5436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>5031012302</v>
       </c>
@@ -5451,7 +5468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>5031012302</v>
       </c>
@@ -5483,7 +5500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>5031012302</v>
       </c>
@@ -5518,7 +5535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>5031012302</v>
       </c>
@@ -5553,7 +5570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17">
         <v>5031012302</v>
       </c>
@@ -5588,7 +5605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17">
         <v>5031012302</v>
       </c>
@@ -5623,7 +5640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>5031012302</v>
       </c>
@@ -5658,7 +5675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>5031012302</v>
       </c>
@@ -5693,7 +5710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>5031012302</v>
       </c>
@@ -5728,7 +5745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>5031012302</v>
       </c>
@@ -5763,7 +5780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
         <v>5031012302</v>
       </c>
@@ -5795,7 +5812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
         <v>5031012302</v>
       </c>
@@ -5830,7 +5847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17">
         <v>5031012302</v>
       </c>
@@ -5865,7 +5882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="17">
         <v>5031012302</v>
       </c>
@@ -5900,7 +5917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>5031012302</v>
       </c>
@@ -5935,7 +5952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>5031012302</v>
       </c>
@@ -5970,7 +5987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>5031012302</v>
       </c>
@@ -6005,7 +6022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
         <v>5031012302</v>
       </c>
@@ -6040,7 +6057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>5031012302</v>
       </c>
@@ -6075,7 +6092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>5031012302</v>
       </c>
@@ -6110,7 +6127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
         <v>5031012302</v>
       </c>
@@ -6145,7 +6162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
         <v>5031012302</v>
       </c>
@@ -6180,7 +6197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>5031012302</v>
       </c>
@@ -6215,7 +6232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>5031012302</v>
       </c>
@@ -6250,7 +6267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>5031012302</v>
       </c>
@@ -6285,7 +6302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>5031012302</v>
       </c>
@@ -6320,7 +6337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>5031012302</v>
       </c>
@@ -6355,7 +6372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
         <v>5031012302</v>
       </c>
@@ -6390,7 +6407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
         <v>5031012302</v>
       </c>
@@ -6425,7 +6442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>5031012302</v>
       </c>
@@ -6460,7 +6477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>5031012302</v>
       </c>
@@ -6495,7 +6512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>5031012302</v>
       </c>
@@ -6530,7 +6547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>5031012302</v>
       </c>
@@ -6565,7 +6582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>5031012302</v>
       </c>
@@ -6600,7 +6617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>5031012302</v>
       </c>
@@ -6635,7 +6652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>5031012302</v>
       </c>
@@ -6670,7 +6687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>5031012302</v>
       </c>
@@ -6705,72 +6722,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="17">
-        <v>5031012302</v>
-      </c>
-      <c r="B158" s="17">
-        <v>10</v>
-      </c>
-      <c r="C158" s="17">
-        <v>1</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F158" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="G158" s="17">
-        <v>1</v>
-      </c>
-      <c r="J158" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K158" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L158" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A159" s="17">
-        <v>5031012302</v>
-      </c>
-      <c r="B159" s="17">
-        <v>10</v>
-      </c>
-      <c r="C159" s="17">
-        <v>1</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F159" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="G159" s="17">
-        <v>1</v>
-      </c>
-      <c r="J159" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K159" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L159" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M159" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M157" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -6785,136 +6738,136 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="11" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="11" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>18</v>
       </c>

--- a/SAL.xlsx
+++ b/SAL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="1" state="visible" r:id="rId1"/>
@@ -727,9 +727,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="13.33203125" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.28515625" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -804,25 +804,25 @@
   <dimension ref="A1:N250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L232" sqref="L232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="10" min="1" max="1"/>
-    <col width="5.44140625" customWidth="1" style="10" min="2" max="2"/>
+    <col width="8.85546875" customWidth="1" style="10" min="1" max="1"/>
+    <col width="5.42578125" customWidth="1" style="10" min="2" max="2"/>
     <col width="30" customWidth="1" style="9" min="3" max="3"/>
-    <col width="42.109375" customWidth="1" style="9" min="4" max="4"/>
-    <col width="23.6640625" customWidth="1" style="10" min="5" max="5"/>
-    <col width="10.33203125" customWidth="1" style="10" min="6" max="6"/>
-    <col width="8.88671875" customWidth="1" style="10" min="7" max="9"/>
-    <col width="13.44140625" customWidth="1" style="10" min="10" max="10"/>
-    <col width="15.109375" customWidth="1" style="17" min="11" max="11"/>
-    <col width="8.44140625" customWidth="1" style="10" min="12" max="12"/>
-    <col width="37.44140625" customWidth="1" style="4" min="13" max="13"/>
-    <col width="8.88671875" customWidth="1" style="4" min="14" max="58"/>
-    <col width="8.88671875" customWidth="1" style="4" min="59" max="16384"/>
+    <col width="42.140625" customWidth="1" style="9" min="4" max="4"/>
+    <col width="23.7109375" customWidth="1" style="10" min="5" max="5"/>
+    <col width="10.28515625" customWidth="1" style="10" min="6" max="6"/>
+    <col width="8.85546875" customWidth="1" style="10" min="7" max="9"/>
+    <col width="13.42578125" customWidth="1" style="10" min="10" max="10"/>
+    <col width="15.140625" customWidth="1" style="17" min="11" max="11"/>
+    <col width="8.42578125" customWidth="1" style="10" min="12" max="12"/>
+    <col width="37.42578125" customWidth="1" style="4" min="13" max="13"/>
+    <col width="8.85546875" customWidth="1" style="4" min="14" max="62"/>
+    <col width="8.85546875" customWidth="1" style="4" min="63" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="14">
@@ -7362,6 +7362,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M132" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7408,6 +7413,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M133" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7459,6 +7469,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M134" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7510,6 +7525,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M135" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7556,6 +7576,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L136" s="10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M136" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7602,6 +7627,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M137" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7648,6 +7678,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M138" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7694,6 +7729,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M139" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7740,6 +7780,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M140" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7786,6 +7831,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M141" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7832,6 +7882,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M142" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7878,6 +7933,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M143" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7924,6 +7984,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M144" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -7970,6 +8035,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M145" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8016,6 +8086,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M146" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8062,6 +8137,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M147" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8108,6 +8188,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M148" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8154,6 +8239,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M149" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8200,6 +8290,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L150" s="10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M150" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8246,6 +8341,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M151" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8292,6 +8392,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M152" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8614,6 +8719,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M159" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8665,6 +8775,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M160" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8716,6 +8831,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M161" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8767,6 +8887,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>manca</t>
+        </is>
+      </c>
       <c r="M162" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8818,6 +8943,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M163" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8864,6 +8994,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M164" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8910,6 +9045,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M165" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -8956,6 +9096,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M166" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9002,6 +9147,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M167" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9048,6 +9198,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M168" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9094,6 +9249,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M169" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9140,6 +9300,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M170" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9186,6 +9351,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M171" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9232,6 +9402,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M172" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9278,6 +9453,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M173" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9324,6 +9504,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M174" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9370,6 +9555,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M175" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9416,6 +9606,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M176" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9462,6 +9657,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M177" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9508,6 +9708,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M178" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9554,6 +9759,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M179" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9876,6 +10086,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M186" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9927,6 +10142,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M187" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -9978,6 +10198,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>manca</t>
+        </is>
+      </c>
       <c r="M188" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10029,6 +10254,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M189" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10075,6 +10305,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M190" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10121,6 +10356,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M191" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10167,6 +10407,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M192" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10213,6 +10458,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L193" s="10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M193" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10259,6 +10509,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M194" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10305,6 +10560,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M195" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10351,6 +10611,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M196" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10397,6 +10662,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M197" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10443,6 +10713,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M198" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10489,6 +10764,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M199" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10535,6 +10815,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M200" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10581,6 +10866,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M201" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10627,6 +10917,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M202" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10673,6 +10968,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M203" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10719,6 +11019,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M204" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10765,6 +11070,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M205" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10811,6 +11121,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M206" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10857,6 +11172,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M207" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10903,6 +11223,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M208" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -10949,6 +11274,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M209" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11271,6 +11601,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M216" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11322,6 +11657,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M217" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11373,6 +11713,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>manca</t>
+        </is>
+      </c>
       <c r="M218" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11424,6 +11769,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M219" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11470,6 +11820,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M220" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11516,6 +11871,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M221" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11562,6 +11922,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M222" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11608,6 +11973,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M223" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11654,6 +12024,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M224" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11700,6 +12075,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M225" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11746,6 +12126,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M226" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11792,6 +12177,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M227" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11838,6 +12228,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M228" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11884,6 +12279,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M229" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11930,6 +12330,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M230" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -11976,6 +12381,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L231" s="10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M231" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12022,6 +12432,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M232" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12068,6 +12483,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M233" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12114,6 +12534,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M234" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12160,6 +12585,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M235" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12206,6 +12636,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M236" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12252,6 +12687,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M237" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12298,6 +12738,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M238" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12344,6 +12789,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M239" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12395,6 +12845,11 @@
           <t>ed_2023</t>
         </is>
       </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M240" s="4" t="inlineStr">
         <is>
           <t>x</t>
@@ -12715,6 +13170,11 @@
       <c r="K247" s="17" t="inlineStr">
         <is>
           <t>ed_2023</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
       <c r="M247" s="4" t="inlineStr">
@@ -12885,9 +13345,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="12.6640625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="12.7109375" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/SAL.xlsx
+++ b/SAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enrico\Documents\git-hub\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane.sharepoint.com/sites/RFI3/dtp-ve/ING/TEC/TLC/PMVTLC/1_AQ 1426-2022 BitFox TLC/CA 07-2023 Adeguamento alimentazioni IaP tratta TREVISO-BELLUNO/08_Contabilità/SAL 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D24FC-6F90-4F17-8B33-981A640568C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{CF7D24FC-6F90-4F17-8B33-981A640568C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC54C211-BA18-47A8-B9D0-A240300FAA1F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VDT" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="137">
   <si>
     <t>Posizione</t>
   </si>
@@ -740,44 +740,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -795,6 +795,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,7 +1090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1150,7 @@
       <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1160,7 +1164,7 @@
       <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1181,10 +1185,7 @@
       <c r="L2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1198,7 +1199,7 @@
       <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1233,7 +1234,7 @@
       <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1251,11 +1252,8 @@
       <c r="L4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,7 +1266,7 @@
       <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1292,12 +1290,6 @@
       <c r="L5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1309,7 +1301,7 @@
       <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1336,9 +1328,6 @@
       <c r="M6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1350,7 +1339,7 @@
       <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1374,10 +1363,7 @@
       <c r="L7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1391,7 +1377,7 @@
       <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1415,10 +1401,7 @@
       <c r="L8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1432,7 +1415,7 @@
       <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1459,9 +1442,6 @@
       <c r="M9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1473,7 +1453,7 @@
       <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1494,10 +1474,7 @@
       <c r="L10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="M10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1511,7 +1488,7 @@
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1532,10 +1509,7 @@
       <c r="L11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1549,7 +1523,7 @@
       <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1570,10 +1544,7 @@
       <c r="L12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1587,7 +1558,7 @@
       <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1608,10 +1579,7 @@
       <c r="L13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="M13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1625,7 +1593,7 @@
       <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -1646,10 +1614,7 @@
       <c r="L14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1663,7 +1628,7 @@
       <c r="C15" s="10">
         <v>1</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -1684,10 +1649,7 @@
       <c r="L15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1701,7 +1663,7 @@
       <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -1722,14 +1684,11 @@
       <c r="L16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>136</v>
       </c>
@@ -1739,7 +1698,7 @@
       <c r="C17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -1760,14 +1719,11 @@
       <c r="L17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>136</v>
       </c>
@@ -1777,7 +1733,7 @@
       <c r="C18" s="10">
         <v>1</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -1798,14 +1754,11 @@
       <c r="L18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>136</v>
       </c>
@@ -1815,7 +1768,7 @@
       <c r="C19" s="10">
         <v>1</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -1836,14 +1789,11 @@
       <c r="L19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>136</v>
       </c>
@@ -1853,7 +1803,7 @@
       <c r="C20" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -1874,14 +1824,11 @@
       <c r="L20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M20" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>136</v>
       </c>
@@ -1891,7 +1838,7 @@
       <c r="C21" s="10">
         <v>1</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -1912,14 +1859,11 @@
       <c r="L21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>136</v>
       </c>
@@ -1929,7 +1873,7 @@
       <c r="C22" s="10">
         <v>1</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -1950,14 +1894,11 @@
       <c r="L22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M22" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>136</v>
       </c>
@@ -1967,7 +1908,7 @@
       <c r="C23" s="10">
         <v>1</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -1988,14 +1929,11 @@
       <c r="L23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>136</v>
       </c>
@@ -2005,7 +1943,7 @@
       <c r="C24" s="10">
         <v>1</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -2026,14 +1964,11 @@
       <c r="L24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>136</v>
       </c>
@@ -2043,7 +1978,7 @@
       <c r="C25" s="10">
         <v>1</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="9" t="s">
@@ -2064,14 +1999,11 @@
       <c r="L25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>136</v>
       </c>
@@ -2081,7 +2013,7 @@
       <c r="C26" s="10">
         <v>1</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -2102,14 +2034,11 @@
       <c r="L26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>136</v>
       </c>
@@ -2119,7 +2048,7 @@
       <c r="C27" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -2140,14 +2069,11 @@
       <c r="L27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M27" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>136</v>
       </c>
@@ -2157,7 +2083,7 @@
       <c r="C28" s="10">
         <v>1</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2178,14 +2104,11 @@
       <c r="L28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M28" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M28" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>136</v>
       </c>
@@ -2195,7 +2118,7 @@
       <c r="C29" s="10">
         <v>1</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -2216,14 +2139,11 @@
       <c r="L29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M29" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M29" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>136</v>
       </c>
@@ -2233,7 +2153,7 @@
       <c r="C30" s="10">
         <v>1</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -2254,14 +2174,11 @@
       <c r="L30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>136</v>
       </c>
@@ -2271,7 +2188,7 @@
       <c r="C31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -2292,14 +2209,11 @@
       <c r="L31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M31" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M31" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>136</v>
       </c>
@@ -2309,7 +2223,7 @@
       <c r="C32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -2330,14 +2244,11 @@
       <c r="L32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M32" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>136</v>
       </c>
@@ -2347,7 +2258,7 @@
       <c r="C33" s="10">
         <v>1</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="9" t="s">
@@ -2368,14 +2279,11 @@
       <c r="L33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M33" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M33" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>136</v>
       </c>
@@ -2385,7 +2293,7 @@
       <c r="C34" s="10">
         <v>1</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -2406,14 +2314,11 @@
       <c r="L34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M34" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M34" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>136</v>
       </c>
@@ -2423,7 +2328,7 @@
       <c r="C35" s="10">
         <v>1</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="9" t="s">
@@ -2444,14 +2349,11 @@
       <c r="L35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M35" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>136</v>
       </c>
@@ -2461,7 +2363,7 @@
       <c r="C36" s="10">
         <v>1</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -2482,14 +2384,11 @@
       <c r="L36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>136</v>
       </c>
@@ -2499,7 +2398,7 @@
       <c r="C37" s="10">
         <v>1</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="9" t="s">
@@ -2520,14 +2419,11 @@
       <c r="L37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M37" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>136</v>
       </c>
@@ -2537,7 +2433,7 @@
       <c r="C38" s="10">
         <v>1</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -2558,14 +2454,11 @@
       <c r="L38" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>136</v>
       </c>
@@ -2575,7 +2468,7 @@
       <c r="C39" s="10">
         <v>1</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -2596,14 +2489,11 @@
       <c r="L39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>136</v>
       </c>
@@ -2613,7 +2503,7 @@
       <c r="C40" s="10">
         <v>1</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -2634,14 +2524,11 @@
       <c r="L40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M40" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>136</v>
       </c>
@@ -2651,7 +2538,7 @@
       <c r="C41" s="10">
         <v>1</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -2672,14 +2559,11 @@
       <c r="L41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M41" t="s">
-        <v>19</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M41" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>136</v>
       </c>
@@ -2689,7 +2573,7 @@
       <c r="C42" s="10">
         <v>1</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="9" t="s">
@@ -2710,14 +2594,11 @@
       <c r="L42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M42" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M42" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>136</v>
       </c>
@@ -2727,7 +2608,7 @@
       <c r="C43" s="10">
         <v>1</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -2748,14 +2629,11 @@
       <c r="L43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M43" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>136</v>
       </c>
@@ -2765,7 +2643,7 @@
       <c r="C44" s="10">
         <v>1</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="9" t="s">
@@ -2786,14 +2664,11 @@
       <c r="L44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M44" t="s">
-        <v>19</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M44" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>136</v>
       </c>
@@ -2803,7 +2678,7 @@
       <c r="C45" s="10">
         <v>1</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="9" t="s">
@@ -2824,14 +2699,11 @@
       <c r="L45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M45" t="s">
-        <v>19</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>136</v>
       </c>
@@ -2841,7 +2713,7 @@
       <c r="C46" s="10">
         <v>1</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -2862,14 +2734,11 @@
       <c r="L46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M46" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>136</v>
       </c>
@@ -2879,7 +2748,7 @@
       <c r="C47" s="10">
         <v>1</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="9" t="s">
@@ -2903,11 +2772,8 @@
       <c r="M47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>136</v>
       </c>
@@ -2917,7 +2783,7 @@
       <c r="C48" s="10">
         <v>1</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -2938,10 +2804,7 @@
       <c r="L48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N48" s="4" t="s">
+      <c r="M48" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2955,7 +2818,7 @@
       <c r="C49" s="10">
         <v>1</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="9" t="s">
@@ -2979,9 +2842,6 @@
       <c r="M49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
@@ -2993,7 +2853,7 @@
       <c r="C50" s="10">
         <v>1</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -3014,10 +2874,7 @@
       <c r="L50" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M50" t="s">
-        <v>19</v>
-      </c>
-      <c r="N50" s="4" t="s">
+      <c r="M50" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3031,7 +2888,7 @@
       <c r="C51" s="10">
         <v>1</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="9" t="s">
@@ -3052,10 +2909,7 @@
       <c r="L51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M51" t="s">
-        <v>19</v>
-      </c>
-      <c r="N51" s="4" t="s">
+      <c r="M51" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3069,17 +2923,14 @@
       <c r="C52" s="10">
         <v>1</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G52" s="10">
-        <v>70</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>16</v>
@@ -3090,11 +2941,11 @@
       <c r="L52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M52" t="s">
-        <v>19</v>
+      <c r="M52" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3107,17 +2958,14 @@
       <c r="C53" s="10">
         <v>1</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G53" s="10">
-        <v>110</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>16</v>
@@ -3128,11 +2976,11 @@
       <c r="L53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M53" t="s">
-        <v>19</v>
+      <c r="M53" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3145,17 +2993,14 @@
       <c r="C54" s="10">
         <v>1</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="G54" s="10">
-        <v>40</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>16</v>
@@ -3167,10 +3012,10 @@
         <v>18</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3183,17 +3028,14 @@
       <c r="C55" s="10">
         <v>1</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="G55" s="10">
-        <v>40</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>16</v>
@@ -3204,11 +3046,11 @@
       <c r="L55" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M55" t="s">
-        <v>19</v>
+      <c r="M55" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3221,17 +3063,14 @@
       <c r="C56" s="10">
         <v>1</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G56" s="10">
-        <v>45</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>16</v>
@@ -3242,11 +3081,11 @@
       <c r="L56" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M56" t="s">
-        <v>19</v>
+      <c r="M56" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3259,14 +3098,14 @@
       <c r="C57" s="10">
         <v>1</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G57" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>16</v>
@@ -3277,11 +3116,11 @@
       <c r="L57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M57" t="s">
-        <v>19</v>
+      <c r="M57" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3294,14 +3133,14 @@
       <c r="C58" s="10">
         <v>1</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G58" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>16</v>
@@ -3312,11 +3151,8 @@
       <c r="L58" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M58" t="s">
-        <v>19</v>
-      </c>
       <c r="N58" s="4" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3329,14 +3165,17 @@
       <c r="C59" s="10">
         <v>1</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G59" s="10">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J59" s="10" t="s">
         <v>16</v>
@@ -3347,10 +3186,7 @@
       <c r="L59" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M59" t="s">
-        <v>19</v>
-      </c>
-      <c r="N59" s="4" t="s">
+      <c r="M59" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3364,14 +3200,17 @@
       <c r="C60" s="10">
         <v>1</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G60" s="10">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>16</v>
@@ -3382,10 +3221,7 @@
       <c r="L60" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M60" t="s">
-        <v>19</v>
-      </c>
-      <c r="N60" s="4" t="s">
+      <c r="M60" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3399,14 +3235,17 @@
       <c r="C61" s="10">
         <v>1</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G61" s="10">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>16</v>
@@ -3417,10 +3256,7 @@
       <c r="L61" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M61" t="s">
-        <v>19</v>
-      </c>
-      <c r="N61" s="4" t="s">
+      <c r="M61" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3434,14 +3270,17 @@
       <c r="C62" s="10">
         <v>1</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G62" s="10">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>16</v>
@@ -3452,10 +3291,7 @@
       <c r="L62" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M62" t="s">
-        <v>19</v>
-      </c>
-      <c r="N62" s="4" t="s">
+      <c r="M62" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3469,14 +3305,17 @@
       <c r="C63" s="10">
         <v>1</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G63" s="10">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>16</v>
@@ -3487,10 +3326,7 @@
       <c r="L63" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N63" s="4" t="s">
+      <c r="M63" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3504,851 +3340,779 @@
       <c r="C64" s="10">
         <v>1</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F64" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="10">
+        <v>3</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="10">
+        <v>10</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="10">
+        <v>16</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="10">
+        <v>10</v>
+      </c>
+      <c r="C66" s="10">
+        <v>1</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="10">
+        <v>4</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="10">
+        <v>10</v>
+      </c>
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="10">
+        <v>3</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="10">
+        <v>10</v>
+      </c>
+      <c r="C68" s="10">
+        <v>1</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="10">
+        <v>8</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="10">
+        <v>10</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" s="10">
+        <v>48</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="10">
+        <v>10</v>
+      </c>
+      <c r="C70" s="10">
+        <v>1</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="10">
+        <v>4</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="10">
+        <v>10</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G71" s="10">
         <v>40</v>
       </c>
-      <c r="J64" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L64" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M64" t="s">
-        <v>19</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="10">
-        <v>10</v>
-      </c>
-      <c r="C65" s="10">
-        <v>1</v>
-      </c>
-      <c r="D65" s="23" t="s">
+      <c r="J71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="10">
+        <v>10</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F72" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G72" s="10">
         <v>4</v>
       </c>
-      <c r="J65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" t="s">
-        <v>19</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="10">
-        <v>10</v>
-      </c>
-      <c r="C66" s="10">
-        <v>1</v>
-      </c>
-      <c r="D66" s="23" t="s">
+      <c r="J72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="10">
+        <v>10</v>
+      </c>
+      <c r="C73" s="10">
+        <v>1</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F73" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G73" s="10">
         <v>14</v>
       </c>
-      <c r="J66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M66" t="s">
-        <v>19</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="10">
-        <v>10</v>
-      </c>
-      <c r="C67" s="10">
-        <v>1</v>
-      </c>
-      <c r="D67" s="23" t="s">
+      <c r="J73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="10">
+        <v>10</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F74" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G74" s="10">
         <v>2</v>
       </c>
-      <c r="J67" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" t="s">
-        <v>19</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="10">
-        <v>10</v>
-      </c>
-      <c r="C68" s="10">
-        <v>1</v>
-      </c>
-      <c r="D68" s="23" t="s">
+      <c r="J74" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="10">
+        <v>10</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F75" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G75" s="10">
         <v>2</v>
       </c>
-      <c r="J68" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" t="s">
-        <v>19</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="10">
-        <v>10</v>
-      </c>
-      <c r="C69" s="10">
-        <v>1</v>
-      </c>
-      <c r="D69" s="23" t="s">
+      <c r="J75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="10">
+        <v>10</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1</v>
+      </c>
+      <c r="D76" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F76" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G76" s="10">
         <v>47</v>
       </c>
-      <c r="J69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" t="s">
-        <v>19</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="10">
-        <v>10</v>
-      </c>
-      <c r="C70" s="10">
-        <v>1</v>
-      </c>
-      <c r="D70" s="23" t="s">
+      <c r="J76" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="10">
+        <v>10</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1</v>
+      </c>
+      <c r="D77" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F77" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G77" s="10">
         <v>74</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M70" t="s">
-        <v>19</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="10">
-        <v>10</v>
-      </c>
-      <c r="C71" s="10">
-        <v>1</v>
-      </c>
-      <c r="D71" s="23" t="s">
+      <c r="J77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="10">
+        <v>10</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1</v>
+      </c>
+      <c r="D78" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F78" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="10">
-        <v>18</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" t="s">
-        <v>19</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="10">
-        <v>10</v>
-      </c>
-      <c r="C72" s="10">
-        <v>1</v>
-      </c>
-      <c r="D72" s="23" t="s">
+      <c r="G78" s="10">
+        <v>18</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="10">
+        <v>10</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1</v>
+      </c>
+      <c r="D79" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F79" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G79" s="10">
         <v>20</v>
       </c>
-      <c r="J72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" t="s">
-        <v>19</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="10">
-        <v>10</v>
-      </c>
-      <c r="C73" s="10">
-        <v>1</v>
-      </c>
-      <c r="D73" s="23" t="s">
+      <c r="J79" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="10">
+        <v>10</v>
+      </c>
+      <c r="C80" s="10">
+        <v>1</v>
+      </c>
+      <c r="D80" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F80" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G80" s="10">
         <v>8</v>
       </c>
-      <c r="J73" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" t="s">
-        <v>19</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="10">
-        <v>10</v>
-      </c>
-      <c r="C74" s="10">
-        <v>1</v>
-      </c>
-      <c r="D74" s="23" t="s">
+      <c r="J80" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="10">
+        <v>10</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F81" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G81" s="10">
         <v>139</v>
       </c>
-      <c r="J74" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M74" t="s">
-        <v>19</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="10">
-        <v>10</v>
-      </c>
-      <c r="C75" s="10">
-        <v>1</v>
-      </c>
-      <c r="D75" s="23" t="s">
+      <c r="J81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="10">
+        <v>10</v>
+      </c>
+      <c r="C82" s="10">
+        <v>1</v>
+      </c>
+      <c r="D82" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F82" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G82" s="10">
         <v>36</v>
       </c>
-      <c r="J75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L75" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M75" t="s">
-        <v>19</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="10">
-        <v>10</v>
-      </c>
-      <c r="C76" s="10">
-        <v>1</v>
-      </c>
-      <c r="D76" s="23" t="s">
+      <c r="J82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="10">
+        <v>10</v>
+      </c>
+      <c r="C83" s="10">
+        <v>1</v>
+      </c>
+      <c r="D83" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F83" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G76" s="10">
-        <v>19</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="10">
-        <v>10</v>
-      </c>
-      <c r="C77" s="10">
-        <v>1</v>
-      </c>
-      <c r="D77" s="23" t="s">
+      <c r="G83" s="10">
+        <v>19</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="10">
+        <v>10</v>
+      </c>
+      <c r="C84" s="10">
+        <v>1</v>
+      </c>
+      <c r="D84" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F84" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G84" s="10">
         <v>345</v>
       </c>
-      <c r="J77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M77" t="s">
-        <v>19</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="10">
-        <v>10</v>
-      </c>
-      <c r="C78" s="10">
-        <v>1</v>
-      </c>
-      <c r="D78" s="23" t="s">
+      <c r="J84" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="10">
+        <v>10</v>
+      </c>
+      <c r="C85" s="10">
+        <v>1</v>
+      </c>
+      <c r="D85" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F85" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G85" s="10">
         <v>60</v>
       </c>
-      <c r="J78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M78" t="s">
-        <v>19</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" s="10">
-        <v>10</v>
-      </c>
-      <c r="C79" s="10">
-        <v>1</v>
-      </c>
-      <c r="D79" s="23" t="s">
+      <c r="J85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="10">
+        <v>10</v>
+      </c>
+      <c r="C86" s="10">
+        <v>1</v>
+      </c>
+      <c r="D86" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F86" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G86" s="10">
         <v>36</v>
       </c>
-      <c r="J79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L79" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" t="s">
-        <v>19</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="10">
-        <v>10</v>
-      </c>
-      <c r="C80" s="10">
-        <v>1</v>
-      </c>
-      <c r="D80" s="23" t="s">
+      <c r="J86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="10">
+        <v>10</v>
+      </c>
+      <c r="C87" s="10">
+        <v>1</v>
+      </c>
+      <c r="D87" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F87" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G87" s="10">
         <v>6</v>
       </c>
-      <c r="J80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M80" t="s">
-        <v>19</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="10">
-        <v>10</v>
-      </c>
-      <c r="C81" s="10">
-        <v>1</v>
-      </c>
-      <c r="D81" s="23" t="s">
+      <c r="J87" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="10">
+        <v>10</v>
+      </c>
+      <c r="C88" s="10">
+        <v>1</v>
+      </c>
+      <c r="D88" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F88" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="G81" s="10">
-        <v>4</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M81" t="s">
-        <v>19</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="10">
-        <v>10</v>
-      </c>
-      <c r="C82" s="10">
-        <v>1</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G82" s="10">
-        <v>6</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="10">
-        <v>10</v>
-      </c>
-      <c r="C83" s="10">
-        <v>1</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G83" s="10">
-        <v>6</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" t="s">
-        <v>19</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="10">
-        <v>10</v>
-      </c>
-      <c r="C84" s="10">
-        <v>1</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G84" s="10">
-        <v>80</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" t="s">
-        <v>19</v>
-      </c>
-      <c r="N84" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="10">
-        <v>10</v>
-      </c>
-      <c r="C85" s="10">
-        <v>1</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="10">
-        <v>4</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L85" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" t="s">
-        <v>19</v>
-      </c>
-      <c r="N85" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="10">
-        <v>10</v>
-      </c>
-      <c r="C86" s="10">
-        <v>1</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G86" s="10">
-        <v>100</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L86" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M86" t="s">
-        <v>19</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87" s="10">
-        <v>10</v>
-      </c>
-      <c r="C87" s="10">
-        <v>1</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G87" s="10">
-        <v>100</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L87" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" t="s">
-        <v>19</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" s="10">
-        <v>10</v>
-      </c>
-      <c r="C88" s="10">
-        <v>1</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="G88" s="10">
         <v>4</v>
@@ -4362,14 +4126,11 @@
       <c r="L88" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M88" t="s">
-        <v>19</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M88" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>136</v>
       </c>
@@ -4379,14 +4140,14 @@
       <c r="C89" s="10">
         <v>1</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G89" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J89" s="10" t="s">
         <v>16</v>
@@ -4397,14 +4158,11 @@
       <c r="L89" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M89" t="s">
-        <v>19</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M89" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>136</v>
       </c>
@@ -4414,186 +4172,171 @@
       <c r="C90" s="10">
         <v>1</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G90" s="10">
+        <v>6</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="10">
+        <v>10</v>
+      </c>
+      <c r="C91" s="10">
+        <v>1</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G91" s="10">
+        <v>80</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="10">
+        <v>10</v>
+      </c>
+      <c r="C92" s="10">
+        <v>1</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G92" s="10">
         <v>4</v>
       </c>
-      <c r="J90" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L90" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M90" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="10">
-        <v>10</v>
-      </c>
-      <c r="C91" s="10">
-        <v>1</v>
-      </c>
-      <c r="D91" s="23" t="s">
+      <c r="J92" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="10">
+        <v>10</v>
+      </c>
+      <c r="C93" s="10">
+        <v>1</v>
+      </c>
+      <c r="D93" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F91" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" s="10">
-        <v>4</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L91" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92" s="10">
-        <v>10</v>
-      </c>
-      <c r="C92" s="10">
-        <v>1</v>
-      </c>
-      <c r="D92" s="23" t="s">
+      <c r="F93" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="10">
+        <v>100</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="10">
+        <v>10</v>
+      </c>
+      <c r="C94" s="10">
+        <v>1</v>
+      </c>
+      <c r="D94" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F92" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G92" s="10">
-        <v>10</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L92" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M92" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="10">
-        <v>10</v>
-      </c>
-      <c r="C93" s="10">
-        <v>1</v>
-      </c>
-      <c r="D93" s="23" t="s">
+      <c r="F94" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G94" s="10">
+        <v>100</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="10">
+        <v>10</v>
+      </c>
+      <c r="C95" s="10">
+        <v>1</v>
+      </c>
+      <c r="D95" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F93" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G93" s="10">
-        <v>10</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K93" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L93" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M93" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="10">
-        <v>10</v>
-      </c>
-      <c r="C94" s="10">
-        <v>1</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G94" s="10">
-        <v>4</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L94" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="10">
-        <v>10</v>
-      </c>
-      <c r="C95" s="10">
-        <v>1</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>72</v>
-      </c>
       <c r="F95" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G95" s="10">
         <v>4</v>
@@ -4608,13 +4351,10 @@
         <v>18</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>136</v>
       </c>
@@ -4624,14 +4364,14 @@
       <c r="C96" s="10">
         <v>1</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G96" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J96" s="10" t="s">
         <v>16</v>
@@ -4643,10 +4383,7 @@
         <v>18</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -4659,7 +4396,7 @@
       <c r="C97" s="10">
         <v>1</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F97" s="10" t="s">
@@ -4677,10 +4414,7 @@
       <c r="L97" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M97" t="s">
-        <v>19</v>
-      </c>
-      <c r="N97" s="4" t="s">
+      <c r="M97" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4694,7 +4428,7 @@
       <c r="C98" s="10">
         <v>1</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="24" t="s">
         <v>72</v>
       </c>
       <c r="F98" s="10" t="s">
@@ -4712,10 +4446,7 @@
       <c r="L98" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M98" t="s">
-        <v>19</v>
-      </c>
-      <c r="N98" s="4" t="s">
+      <c r="M98" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4732,17 +4463,11 @@
       <c r="D99" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E99" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F99" s="10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G99" s="10">
-        <v>20</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J99" s="10" t="s">
         <v>16</v>
@@ -4753,11 +4478,11 @@
       <c r="L99" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M99" t="s">
-        <v>19</v>
+      <c r="M99" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -4773,17 +4498,11 @@
       <c r="D100" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F100" s="10" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="G100" s="10">
-        <v>25</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J100" s="10" t="s">
         <v>16</v>
@@ -4794,11 +4513,11 @@
       <c r="L100" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M100" t="s">
-        <v>25</v>
+      <c r="M100" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -4814,17 +4533,11 @@
       <c r="D101" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F101" s="10" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G101" s="10">
-        <v>10</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J101" s="10" t="s">
         <v>16</v>
@@ -4835,11 +4548,11 @@
       <c r="L101" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M101" t="s">
-        <v>19</v>
+      <c r="M101" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -4855,18 +4568,12 @@
       <c r="D102" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="F102" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G102" s="10">
         <v>1</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="J102" s="10" t="s">
         <v>16</v>
       </c>
@@ -4876,11 +4583,11 @@
       <c r="L102" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M102" t="s">
-        <v>19</v>
+      <c r="M102" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -4896,17 +4603,11 @@
       <c r="D103" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="F103" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G103" s="10">
-        <v>4</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J103" s="10" t="s">
         <v>16</v>
@@ -4917,11 +4618,11 @@
       <c r="L103" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M103" t="s">
-        <v>19</v>
+      <c r="M103" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -4937,14 +4638,11 @@
       <c r="D104" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F104" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G104" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J104" s="10" t="s">
         <v>16</v>
@@ -4955,11 +4653,8 @@
       <c r="L104" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M104" t="s">
-        <v>25</v>
-      </c>
       <c r="N104" s="4" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -4976,13 +4671,16 @@
         <v>91</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G105" s="10">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J105" s="10" t="s">
         <v>16</v>
@@ -4993,10 +4691,7 @@
       <c r="L105" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M105" t="s">
-        <v>19</v>
-      </c>
-      <c r="N105" s="4" t="s">
+      <c r="M105" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5014,13 +4709,16 @@
         <v>91</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G106" s="10">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J106" s="10" t="s">
         <v>16</v>
@@ -5031,10 +4729,7 @@
       <c r="L106" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M106" t="s">
-        <v>19</v>
-      </c>
-      <c r="N106" s="4" t="s">
+      <c r="M106" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5052,13 +4747,16 @@
         <v>91</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G107" s="10">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J107" s="10" t="s">
         <v>16</v>
@@ -5069,10 +4767,7 @@
       <c r="L107" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M107" t="s">
-        <v>19</v>
-      </c>
-      <c r="N107" s="4" t="s">
+      <c r="M107" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5090,13 +4785,16 @@
         <v>91</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="G108" s="10">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J108" s="10" t="s">
         <v>16</v>
@@ -5107,10 +4805,7 @@
       <c r="L108" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M108" t="s">
-        <v>19</v>
-      </c>
-      <c r="N108" s="4" t="s">
+      <c r="M108" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5128,13 +4823,16 @@
         <v>91</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="G109" s="10">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J109" s="10" t="s">
         <v>16</v>
@@ -5145,10 +4843,7 @@
       <c r="L109" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M109" t="s">
-        <v>19</v>
-      </c>
-      <c r="N109" s="4" t="s">
+      <c r="M109" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5169,10 +4864,10 @@
         <v>95</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G110" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J110" s="10" t="s">
         <v>16</v>
@@ -5183,11 +4878,8 @@
       <c r="L110" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M110" t="s">
-        <v>19</v>
-      </c>
-      <c r="N110" s="4" t="s">
-        <v>19</v>
+      <c r="M110" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5207,7 +4899,7 @@
         <v>95</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G111" s="10">
         <v>4</v>
@@ -5221,10 +4913,7 @@
       <c r="L111" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M111" t="s">
-        <v>19</v>
-      </c>
-      <c r="N111" s="4" t="s">
+      <c r="M111" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5242,13 +4931,13 @@
         <v>91</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G112" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J112" s="10" t="s">
         <v>16</v>
@@ -5259,14 +4948,11 @@
       <c r="L112" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M112" t="s">
-        <v>19</v>
-      </c>
-      <c r="N112" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M112" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>136</v>
       </c>
@@ -5280,13 +4966,13 @@
         <v>91</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G113" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" s="10" t="s">
         <v>16</v>
@@ -5297,14 +4983,11 @@
       <c r="L113" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M113" t="s">
-        <v>19</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M113" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>136</v>
       </c>
@@ -5321,10 +5004,10 @@
         <v>95</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G114" s="10">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J114" s="10" t="s">
         <v>16</v>
@@ -5335,14 +5018,11 @@
       <c r="L114" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M114" t="s">
-        <v>19</v>
-      </c>
-      <c r="N114" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M114" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>136</v>
       </c>
@@ -5356,13 +5036,13 @@
         <v>91</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G115" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J115" s="10" t="s">
         <v>16</v>
@@ -5373,14 +5053,11 @@
       <c r="L115" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M115" t="s">
-        <v>19</v>
-      </c>
-      <c r="N115" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M115" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>136</v>
       </c>
@@ -5394,13 +5071,13 @@
         <v>91</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G116" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J116" s="10" t="s">
         <v>16</v>
@@ -5411,14 +5088,11 @@
       <c r="L116" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M116" t="s">
-        <v>19</v>
-      </c>
-      <c r="N116" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M116" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>136</v>
       </c>
@@ -5432,13 +5106,13 @@
         <v>91</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="G117" s="10">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="J117" s="10" t="s">
         <v>16</v>
@@ -5449,14 +5123,11 @@
       <c r="L117" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M117" t="s">
-        <v>19</v>
-      </c>
-      <c r="N117" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M117" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>136</v>
       </c>
@@ -5470,13 +5141,13 @@
         <v>91</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G118" s="10">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J118" s="10" t="s">
         <v>16</v>
@@ -5487,14 +5158,11 @@
       <c r="L118" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M118" t="s">
-        <v>19</v>
-      </c>
-      <c r="N118" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M118" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>136</v>
       </c>
@@ -5508,13 +5176,13 @@
         <v>91</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G119" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J119" s="10" t="s">
         <v>16</v>
@@ -5525,14 +5193,11 @@
       <c r="L119" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M119" t="s">
-        <v>19</v>
-      </c>
-      <c r="N119" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M119" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>136</v>
       </c>
@@ -5546,13 +5211,13 @@
         <v>91</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G120" s="10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J120" s="10" t="s">
         <v>16</v>
@@ -5563,14 +5228,11 @@
       <c r="L120" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M120" t="s">
-        <v>19</v>
-      </c>
-      <c r="N120" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M120" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>136</v>
       </c>
@@ -5584,13 +5246,13 @@
         <v>91</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G121" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J121" s="10" t="s">
         <v>16</v>
@@ -5601,14 +5263,11 @@
       <c r="L121" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M121" t="s">
-        <v>19</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M121" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>136</v>
       </c>
@@ -5622,13 +5281,13 @@
         <v>91</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G122" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J122" s="10" t="s">
         <v>16</v>
@@ -5639,14 +5298,11 @@
       <c r="L122" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M122" t="s">
-        <v>19</v>
-      </c>
-      <c r="N122" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M122" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>136</v>
       </c>
@@ -5663,10 +5319,10 @@
         <v>30</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G123" s="10">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J123" s="10" t="s">
         <v>16</v>
@@ -5677,14 +5333,11 @@
       <c r="L123" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M123" t="s">
-        <v>19</v>
-      </c>
-      <c r="N123" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M123" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>136</v>
       </c>
@@ -5698,13 +5351,13 @@
         <v>91</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G124" s="10">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J124" s="10" t="s">
         <v>16</v>
@@ -5715,14 +5368,11 @@
       <c r="L124" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M124" t="s">
-        <v>19</v>
-      </c>
-      <c r="N124" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M124" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>136</v>
       </c>
@@ -5735,11 +5385,14 @@
       <c r="D125" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="E125" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F125" s="10" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G125" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J125" s="10" t="s">
         <v>16</v>
@@ -5751,13 +5404,10 @@
         <v>18</v>
       </c>
       <c r="M125" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N125" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>136</v>
       </c>
@@ -5770,11 +5420,14 @@
       <c r="D126" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="E126" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F126" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G126" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" s="10" t="s">
         <v>16</v>
@@ -5786,13 +5439,10 @@
         <v>18</v>
       </c>
       <c r="M126" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N126" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>136</v>
       </c>
@@ -5805,11 +5455,14 @@
       <c r="D127" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="E127" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F127" s="10" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G127" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J127" s="10" t="s">
         <v>16</v>
@@ -5821,13 +5474,10 @@
         <v>18</v>
       </c>
       <c r="M127" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N127" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>136</v>
       </c>
@@ -5840,11 +5490,14 @@
       <c r="D128" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="E128" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F128" s="10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G128" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J128" s="10" t="s">
         <v>16</v>
@@ -5856,10 +5509,7 @@
         <v>18</v>
       </c>
       <c r="M128" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N128" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -5875,11 +5525,14 @@
       <c r="D129" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="E129" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F129" s="10" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G129" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J129" s="10" t="s">
         <v>16</v>
@@ -5891,10 +5544,7 @@
         <v>18</v>
       </c>
       <c r="M129" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N129" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -5910,8 +5560,11 @@
       <c r="D130" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="E130" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F130" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G130" s="10">
         <v>1</v>
@@ -5926,10 +5579,7 @@
         <v>18</v>
       </c>
       <c r="M130" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N130" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -5963,10 +5613,7 @@
       <c r="L131" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M131" t="s">
-        <v>19</v>
-      </c>
-      <c r="N131" s="4" t="s">
+      <c r="M131" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6001,10 +5648,7 @@
       <c r="L132" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M132" t="s">
-        <v>19</v>
-      </c>
-      <c r="N132" s="4" t="s">
+      <c r="M132" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6039,10 +5683,7 @@
       <c r="L133" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M133" t="s">
-        <v>19</v>
-      </c>
-      <c r="N133" s="4" t="s">
+      <c r="M133" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6059,17 +5700,11 @@
       <c r="D134" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F134" s="10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G134" s="10">
-        <v>30</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J134" s="10" t="s">
         <v>16</v>
@@ -6080,11 +5715,11 @@
       <c r="L134" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M134" t="s">
-        <v>19</v>
+      <c r="M134" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6100,17 +5735,11 @@
       <c r="D135" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E135" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F135" s="10" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="G135" s="10">
-        <v>15</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J135" s="10" t="s">
         <v>16</v>
@@ -6121,11 +5750,11 @@
       <c r="L135" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M135" t="s">
-        <v>19</v>
+      <c r="M135" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -6141,14 +5770,11 @@
       <c r="D136" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E136" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F136" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G136" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J136" s="10" t="s">
         <v>16</v>
@@ -6160,10 +5786,10 @@
         <v>18</v>
       </c>
       <c r="M136" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -6179,14 +5805,11 @@
       <c r="D137" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E137" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F137" s="10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G137" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J137" s="10" t="s">
         <v>16</v>
@@ -6197,11 +5820,11 @@
       <c r="L137" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M137" t="s">
-        <v>19</v>
+      <c r="M137" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -6217,14 +5840,11 @@
       <c r="D138" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E138" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F138" s="10" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G138" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J138" s="10" t="s">
         <v>16</v>
@@ -6235,11 +5855,11 @@
       <c r="L138" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M138" t="s">
-        <v>19</v>
+      <c r="M138" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -6255,14 +5875,11 @@
       <c r="D139" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E139" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F139" s="10" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G139" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J139" s="10" t="s">
         <v>16</v>
@@ -6273,11 +5890,8 @@
       <c r="L139" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M139" t="s">
-        <v>19</v>
-      </c>
       <c r="N139" s="4" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -6294,13 +5908,16 @@
         <v>102</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G140" s="10">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J140" s="10" t="s">
         <v>16</v>
@@ -6311,10 +5928,7 @@
       <c r="L140" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M140" t="s">
-        <v>19</v>
-      </c>
-      <c r="N140" s="4" t="s">
+      <c r="M140" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6332,13 +5946,16 @@
         <v>102</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="G141" s="10">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J141" s="10" t="s">
         <v>16</v>
@@ -6349,10 +5966,7 @@
       <c r="L141" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M141" t="s">
-        <v>19</v>
-      </c>
-      <c r="N141" s="4" t="s">
+      <c r="M141" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6373,10 +5987,10 @@
         <v>95</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="G142" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J142" s="10" t="s">
         <v>16</v>
@@ -6387,10 +6001,7 @@
       <c r="L142" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M142" t="s">
-        <v>19</v>
-      </c>
-      <c r="N142" s="4" t="s">
+      <c r="M142" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6411,10 +6022,10 @@
         <v>95</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="G143" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J143" s="10" t="s">
         <v>16</v>
@@ -6425,10 +6036,7 @@
       <c r="L143" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M143" t="s">
-        <v>19</v>
-      </c>
-      <c r="N143" s="4" t="s">
+      <c r="M143" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6449,10 +6057,10 @@
         <v>95</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G144" s="10">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J144" s="10" t="s">
         <v>16</v>
@@ -6463,10 +6071,7 @@
       <c r="L144" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M144" t="s">
-        <v>19</v>
-      </c>
-      <c r="N144" s="4" t="s">
+      <c r="M144" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6484,13 +6089,13 @@
         <v>102</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G145" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J145" s="10" t="s">
         <v>16</v>
@@ -6501,10 +6106,7 @@
       <c r="L145" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M145" t="s">
-        <v>19</v>
-      </c>
-      <c r="N145" s="4" t="s">
+      <c r="M145" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6522,10 +6124,10 @@
         <v>102</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G146" s="10">
         <v>4</v>
@@ -6539,10 +6141,7 @@
       <c r="L146" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M146" t="s">
-        <v>19</v>
-      </c>
-      <c r="N146" s="4" t="s">
+      <c r="M146" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6560,13 +6159,13 @@
         <v>102</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="G147" s="10">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="J147" s="10" t="s">
         <v>16</v>
@@ -6577,10 +6176,7 @@
       <c r="L147" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M147" t="s">
-        <v>19</v>
-      </c>
-      <c r="N147" s="4" t="s">
+      <c r="M147" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6598,13 +6194,13 @@
         <v>102</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G148" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J148" s="10" t="s">
         <v>16</v>
@@ -6615,10 +6211,7 @@
       <c r="L148" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M148" t="s">
-        <v>19</v>
-      </c>
-      <c r="N148" s="4" t="s">
+      <c r="M148" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6636,13 +6229,13 @@
         <v>102</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G149" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" s="10" t="s">
         <v>16</v>
@@ -6653,10 +6246,7 @@
       <c r="L149" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M149" t="s">
-        <v>19</v>
-      </c>
-      <c r="N149" s="4" t="s">
+      <c r="M149" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6677,10 +6267,10 @@
         <v>95</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G150" s="10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J150" s="10" t="s">
         <v>16</v>
@@ -6692,9 +6282,6 @@
         <v>18</v>
       </c>
       <c r="M150" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N150" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6712,13 +6299,13 @@
         <v>102</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G151" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J151" s="10" t="s">
         <v>16</v>
@@ -6729,10 +6316,7 @@
       <c r="L151" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M151" t="s">
-        <v>19</v>
-      </c>
-      <c r="N151" s="4" t="s">
+      <c r="M151" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6753,10 +6337,10 @@
         <v>30</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G152" s="10">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J152" s="10" t="s">
         <v>16</v>
@@ -6767,10 +6351,7 @@
       <c r="L152" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M152" t="s">
-        <v>19</v>
-      </c>
-      <c r="N152" s="4" t="s">
+      <c r="M152" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6787,11 +6368,14 @@
       <c r="D153" s="26" t="s">
         <v>102</v>
       </c>
+      <c r="E153" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F153" s="10" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G153" s="10">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="J153" s="10" t="s">
         <v>16</v>
@@ -6803,10 +6387,7 @@
         <v>18</v>
       </c>
       <c r="M153" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N153" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -6822,11 +6403,14 @@
       <c r="D154" s="26" t="s">
         <v>102</v>
       </c>
+      <c r="E154" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F154" s="10" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G154" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J154" s="10" t="s">
         <v>16</v>
@@ -6838,10 +6422,7 @@
         <v>18</v>
       </c>
       <c r="M154" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N154" s="4" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -6857,11 +6438,14 @@
       <c r="D155" s="26" t="s">
         <v>102</v>
       </c>
+      <c r="E155" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F155" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G155" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" s="10" t="s">
         <v>16</v>
@@ -6873,10 +6457,7 @@
         <v>18</v>
       </c>
       <c r="M155" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N155" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -6892,11 +6473,14 @@
       <c r="D156" s="26" t="s">
         <v>102</v>
       </c>
+      <c r="E156" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F156" s="10" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G156" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" s="10" t="s">
         <v>16</v>
@@ -6908,10 +6492,7 @@
         <v>18</v>
       </c>
       <c r="M156" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N156" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -6927,8 +6508,11 @@
       <c r="D157" s="26" t="s">
         <v>102</v>
       </c>
+      <c r="E157" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F157" s="10" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G157" s="10">
         <v>1</v>
@@ -6943,10 +6527,7 @@
         <v>18</v>
       </c>
       <c r="M157" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N157" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -6962,11 +6543,14 @@
       <c r="D158" s="26" t="s">
         <v>102</v>
       </c>
+      <c r="E158" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F158" s="10" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G158" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J158" s="10" t="s">
         <v>16</v>
@@ -6978,10 +6562,7 @@
         <v>18</v>
       </c>
       <c r="M158" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N158" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -7015,10 +6596,7 @@
       <c r="L159" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M159" t="s">
-        <v>19</v>
-      </c>
-      <c r="N159" s="4" t="s">
+      <c r="M159" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7035,17 +6613,11 @@
       <c r="D160" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E160" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F160" s="10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G160" s="10">
-        <v>15</v>
-      </c>
-      <c r="H160" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J160" s="10" t="s">
         <v>16</v>
@@ -7056,11 +6628,11 @@
       <c r="L160" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M160" t="s">
-        <v>19</v>
+      <c r="M160" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -7076,17 +6648,11 @@
       <c r="D161" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E161" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F161" s="10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G161" s="10">
-        <v>30</v>
-      </c>
-      <c r="H161" s="10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J161" s="10" t="s">
         <v>16</v>
@@ -7097,11 +6663,11 @@
       <c r="L161" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M161" t="s">
-        <v>19</v>
+      <c r="M161" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -7117,17 +6683,11 @@
       <c r="D162" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E162" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F162" s="10" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G162" s="10">
-        <v>30</v>
-      </c>
-      <c r="H162" s="10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J162" s="10" t="s">
         <v>16</v>
@@ -7138,11 +6698,11 @@
       <c r="L162" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M162" t="s">
-        <v>25</v>
+      <c r="M162" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -7158,17 +6718,11 @@
       <c r="D163" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E163" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F163" s="10" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G163" s="10">
-        <v>30</v>
-      </c>
-      <c r="H163" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J163" s="10" t="s">
         <v>16</v>
@@ -7179,11 +6733,11 @@
       <c r="L163" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M163" t="s">
-        <v>19</v>
+      <c r="M163" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -7199,14 +6753,11 @@
       <c r="D164" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E164" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F164" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G164" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J164" s="10" t="s">
         <v>16</v>
@@ -7217,11 +6768,11 @@
       <c r="L164" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M164" t="s">
-        <v>19</v>
+      <c r="M164" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -7237,14 +6788,11 @@
       <c r="D165" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E165" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F165" s="10" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G165" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J165" s="10" t="s">
         <v>16</v>
@@ -7255,11 +6803,8 @@
       <c r="L165" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M165" t="s">
-        <v>19</v>
-      </c>
       <c r="N165" s="4" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -7276,13 +6821,16 @@
         <v>103</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G166" s="10">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J166" s="10" t="s">
         <v>16</v>
@@ -7293,10 +6841,7 @@
       <c r="L166" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M166" t="s">
-        <v>19</v>
-      </c>
-      <c r="N166" s="4" t="s">
+      <c r="M166" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7314,13 +6859,16 @@
         <v>103</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G167" s="10">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J167" s="10" t="s">
         <v>16</v>
@@ -7331,10 +6879,7 @@
       <c r="L167" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M167" t="s">
-        <v>19</v>
-      </c>
-      <c r="N167" s="4" t="s">
+      <c r="M167" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7352,13 +6897,16 @@
         <v>103</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G168" s="10">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J168" s="10" t="s">
         <v>16</v>
@@ -7368,12 +6916,6 @@
       </c>
       <c r="L168" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="M168" t="s">
-        <v>19</v>
-      </c>
-      <c r="N168" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -7390,13 +6932,16 @@
         <v>103</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="G169" s="10">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J169" s="10" t="s">
         <v>16</v>
@@ -7407,10 +6952,7 @@
       <c r="L169" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M169" t="s">
-        <v>19</v>
-      </c>
-      <c r="N169" s="4" t="s">
+      <c r="M169" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7431,10 +6973,10 @@
         <v>95</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="G170" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J170" s="10" t="s">
         <v>16</v>
@@ -7445,10 +6987,7 @@
       <c r="L170" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M170" t="s">
-        <v>19</v>
-      </c>
-      <c r="N170" s="4" t="s">
+      <c r="M170" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7469,10 +7008,10 @@
         <v>95</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="G171" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J171" s="10" t="s">
         <v>16</v>
@@ -7483,10 +7022,7 @@
       <c r="L171" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M171" t="s">
-        <v>19</v>
-      </c>
-      <c r="N171" s="4" t="s">
+      <c r="M171" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7507,10 +7043,10 @@
         <v>95</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G172" s="10">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J172" s="10" t="s">
         <v>16</v>
@@ -7521,10 +7057,7 @@
       <c r="L172" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M172" t="s">
-        <v>19</v>
-      </c>
-      <c r="N172" s="4" t="s">
+      <c r="M172" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7542,13 +7075,13 @@
         <v>103</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G173" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J173" s="10" t="s">
         <v>16</v>
@@ -7559,10 +7092,7 @@
       <c r="L173" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M173" t="s">
-        <v>19</v>
-      </c>
-      <c r="N173" s="4" t="s">
+      <c r="M173" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7580,13 +7110,13 @@
         <v>103</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G174" s="10">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="J174" s="10" t="s">
         <v>16</v>
@@ -7597,10 +7127,7 @@
       <c r="L174" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M174" t="s">
-        <v>19</v>
-      </c>
-      <c r="N174" s="4" t="s">
+      <c r="M174" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7618,13 +7145,13 @@
         <v>103</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G175" s="10">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J175" s="10" t="s">
         <v>16</v>
@@ -7635,10 +7162,7 @@
       <c r="L175" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M175" t="s">
-        <v>19</v>
-      </c>
-      <c r="N175" s="4" t="s">
+      <c r="M175" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7656,13 +7180,13 @@
         <v>103</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G176" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J176" s="10" t="s">
         <v>16</v>
@@ -7673,10 +7197,7 @@
       <c r="L176" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M176" t="s">
-        <v>19</v>
-      </c>
-      <c r="N176" s="4" t="s">
+      <c r="M176" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7697,10 +7218,10 @@
         <v>95</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G177" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" s="10" t="s">
         <v>16</v>
@@ -7711,10 +7232,7 @@
       <c r="L177" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M177" t="s">
-        <v>19</v>
-      </c>
-      <c r="N177" s="4" t="s">
+      <c r="M177" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7735,10 +7253,10 @@
         <v>95</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G178" s="10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J178" s="10" t="s">
         <v>16</v>
@@ -7749,10 +7267,7 @@
       <c r="L178" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M178" t="s">
-        <v>19</v>
-      </c>
-      <c r="N178" s="4" t="s">
+      <c r="M178" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7773,10 +7288,10 @@
         <v>30</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G179" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J179" s="10" t="s">
         <v>16</v>
@@ -7787,10 +7302,7 @@
       <c r="L179" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M179" t="s">
-        <v>19</v>
-      </c>
-      <c r="N179" s="4" t="s">
+      <c r="M179" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7807,11 +7319,14 @@
       <c r="D180" s="27" t="s">
         <v>103</v>
       </c>
+      <c r="E180" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F180" s="10" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G180" s="10">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J180" s="10" t="s">
         <v>16</v>
@@ -7823,10 +7338,7 @@
         <v>18</v>
       </c>
       <c r="M180" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N180" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -7842,11 +7354,14 @@
       <c r="D181" s="27" t="s">
         <v>103</v>
       </c>
+      <c r="E181" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F181" s="10" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G181" s="10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J181" s="10" t="s">
         <v>16</v>
@@ -7858,10 +7373,7 @@
         <v>18</v>
       </c>
       <c r="M181" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N181" s="4" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -7877,11 +7389,14 @@
       <c r="D182" s="27" t="s">
         <v>103</v>
       </c>
+      <c r="E182" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F182" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G182" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" s="10" t="s">
         <v>16</v>
@@ -7893,10 +7408,7 @@
         <v>18</v>
       </c>
       <c r="M182" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N182" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -7912,11 +7424,14 @@
       <c r="D183" s="27" t="s">
         <v>103</v>
       </c>
+      <c r="E183" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F183" s="10" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G183" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" s="10" t="s">
         <v>16</v>
@@ -7928,10 +7443,7 @@
         <v>18</v>
       </c>
       <c r="M183" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N183" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -7947,8 +7459,11 @@
       <c r="D184" s="27" t="s">
         <v>103</v>
       </c>
+      <c r="E184" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F184" s="10" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G184" s="10">
         <v>1</v>
@@ -7963,10 +7478,7 @@
         <v>18</v>
       </c>
       <c r="M184" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N184" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -7982,11 +7494,14 @@
       <c r="D185" s="27" t="s">
         <v>103</v>
       </c>
+      <c r="E185" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F185" s="10" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G185" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J185" s="10" t="s">
         <v>16</v>
@@ -7998,10 +7513,7 @@
         <v>18</v>
       </c>
       <c r="M185" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N185" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -8035,10 +7547,7 @@
       <c r="L186" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M186" t="s">
-        <v>19</v>
-      </c>
-      <c r="N186" s="4" t="s">
+      <c r="M186" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8055,17 +7564,11 @@
       <c r="D187" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E187" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F187" s="10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G187" s="10">
-        <v>35</v>
-      </c>
-      <c r="H187" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J187" s="10" t="s">
         <v>16</v>
@@ -8076,11 +7579,11 @@
       <c r="L187" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M187" t="s">
-        <v>19</v>
+      <c r="M187" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -8096,17 +7599,11 @@
       <c r="D188" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E188" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F188" s="10" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="G188" s="10">
-        <v>25</v>
-      </c>
-      <c r="H188" s="10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J188" s="10" t="s">
         <v>16</v>
@@ -8117,11 +7614,11 @@
       <c r="L188" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M188" t="s">
-        <v>25</v>
+      <c r="M188" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -8137,17 +7634,11 @@
       <c r="D189" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E189" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F189" s="10" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G189" s="10">
-        <v>15</v>
-      </c>
-      <c r="H189" s="10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J189" s="10" t="s">
         <v>16</v>
@@ -8158,11 +7649,11 @@
       <c r="L189" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M189" t="s">
-        <v>19</v>
+      <c r="M189" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N189" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -8178,14 +7669,11 @@
       <c r="D190" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E190" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F190" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G190" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J190" s="10" t="s">
         <v>16</v>
@@ -8196,11 +7684,11 @@
       <c r="L190" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M190" t="s">
-        <v>19</v>
+      <c r="M190" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -8216,14 +7704,11 @@
       <c r="D191" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E191" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F191" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G191" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J191" s="10" t="s">
         <v>16</v>
@@ -8234,11 +7719,11 @@
       <c r="L191" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M191" t="s">
-        <v>19</v>
+      <c r="M191" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -8254,11 +7739,8 @@
       <c r="D192" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E192" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="F192" s="10" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="G192" s="10">
         <v>1</v>
@@ -8272,14 +7754,11 @@
       <c r="L192" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M192" t="s">
-        <v>19</v>
-      </c>
       <c r="N192" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>136</v>
       </c>
@@ -8293,13 +7772,16 @@
         <v>105</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G193" s="10">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J193" s="10" t="s">
         <v>16</v>
@@ -8313,11 +7795,8 @@
       <c r="M193" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N193" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>136</v>
       </c>
@@ -8331,13 +7810,16 @@
         <v>105</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G194" s="10">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="H194" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J194" s="10" t="s">
         <v>16</v>
@@ -8348,14 +7830,11 @@
       <c r="L194" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M194" t="s">
-        <v>19</v>
-      </c>
-      <c r="N194" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M194" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>136</v>
       </c>
@@ -8369,13 +7848,16 @@
         <v>105</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G195" s="10">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="H195" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J195" s="10" t="s">
         <v>16</v>
@@ -8386,14 +7868,11 @@
       <c r="L195" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M195" t="s">
-        <v>19</v>
-      </c>
-      <c r="N195" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M195" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>136</v>
       </c>
@@ -8410,10 +7889,10 @@
         <v>95</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G196" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J196" s="10" t="s">
         <v>16</v>
@@ -8424,14 +7903,11 @@
       <c r="L196" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M196" t="s">
-        <v>19</v>
-      </c>
-      <c r="N196" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M196" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>136</v>
       </c>
@@ -8448,7 +7924,7 @@
         <v>95</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G197" s="10">
         <v>4</v>
@@ -8462,14 +7938,11 @@
       <c r="L197" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M197" t="s">
-        <v>19</v>
-      </c>
-      <c r="N197" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M197" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>136</v>
       </c>
@@ -8483,13 +7956,13 @@
         <v>105</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G198" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J198" s="10" t="s">
         <v>16</v>
@@ -8500,14 +7973,11 @@
       <c r="L198" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M198" t="s">
-        <v>19</v>
-      </c>
-      <c r="N198" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M198" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>136</v>
       </c>
@@ -8521,13 +7991,13 @@
         <v>105</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G199" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" s="10" t="s">
         <v>16</v>
@@ -8538,14 +8008,11 @@
       <c r="L199" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M199" t="s">
-        <v>19</v>
-      </c>
-      <c r="N199" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M199" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>136</v>
       </c>
@@ -8562,10 +8029,10 @@
         <v>95</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G200" s="10">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J200" s="10" t="s">
         <v>16</v>
@@ -8576,14 +8043,11 @@
       <c r="L200" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M200" t="s">
-        <v>19</v>
-      </c>
-      <c r="N200" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M200" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>136</v>
       </c>
@@ -8597,10 +8061,10 @@
         <v>105</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G201" s="10">
         <v>20</v>
@@ -8614,14 +8078,11 @@
       <c r="L201" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M201" t="s">
-        <v>19</v>
-      </c>
-      <c r="N201" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M201" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>136</v>
       </c>
@@ -8635,10 +8096,10 @@
         <v>105</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G202" s="10">
         <v>4</v>
@@ -8652,14 +8113,11 @@
       <c r="L202" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M202" t="s">
-        <v>19</v>
-      </c>
-      <c r="N202" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M202" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>136</v>
       </c>
@@ -8673,13 +8131,13 @@
         <v>105</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="G203" s="10">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="J203" s="10" t="s">
         <v>16</v>
@@ -8690,14 +8148,11 @@
       <c r="L203" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M203" t="s">
-        <v>19</v>
-      </c>
-      <c r="N203" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M203" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>136</v>
       </c>
@@ -8711,13 +8166,13 @@
         <v>105</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G204" s="10">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J204" s="10" t="s">
         <v>16</v>
@@ -8728,14 +8183,11 @@
       <c r="L204" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M204" t="s">
-        <v>19</v>
-      </c>
-      <c r="N204" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M204" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>136</v>
       </c>
@@ -8749,13 +8201,13 @@
         <v>105</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G205" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" s="10" t="s">
         <v>16</v>
@@ -8766,14 +8218,11 @@
       <c r="L205" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M205" t="s">
-        <v>19</v>
-      </c>
-      <c r="N205" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M205" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>136</v>
       </c>
@@ -8790,10 +8239,10 @@
         <v>95</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G206" s="10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J206" s="10" t="s">
         <v>16</v>
@@ -8804,14 +8253,11 @@
       <c r="L206" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M206" t="s">
-        <v>19</v>
-      </c>
-      <c r="N206" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M206" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>136</v>
       </c>
@@ -8825,13 +8271,13 @@
         <v>105</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G207" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J207" s="10" t="s">
         <v>16</v>
@@ -8842,14 +8288,11 @@
       <c r="L207" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M207" t="s">
-        <v>19</v>
-      </c>
-      <c r="N207" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M207" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>136</v>
       </c>
@@ -8866,10 +8309,10 @@
         <v>30</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G208" s="10">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J208" s="10" t="s">
         <v>16</v>
@@ -8880,10 +8323,7 @@
       <c r="L208" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M208" t="s">
-        <v>19</v>
-      </c>
-      <c r="N208" s="4" t="s">
+      <c r="M208" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8901,13 +8341,13 @@
         <v>105</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G209" s="10">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="J209" s="10" t="s">
         <v>16</v>
@@ -8918,10 +8358,7 @@
       <c r="L209" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M209" t="s">
-        <v>19</v>
-      </c>
-      <c r="N209" s="4" t="s">
+      <c r="M209" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8938,11 +8375,14 @@
       <c r="D210" s="28" t="s">
         <v>105</v>
       </c>
+      <c r="E210" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F210" s="10" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G210" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J210" s="10" t="s">
         <v>16</v>
@@ -8954,10 +8394,7 @@
         <v>18</v>
       </c>
       <c r="M210" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N210" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
@@ -8973,8 +8410,11 @@
       <c r="D211" s="28" t="s">
         <v>105</v>
       </c>
+      <c r="E211" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F211" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G211" s="10">
         <v>1</v>
@@ -8989,10 +8429,7 @@
         <v>18</v>
       </c>
       <c r="M211" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N211" s="4" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
@@ -9008,11 +8445,14 @@
       <c r="D212" s="28" t="s">
         <v>105</v>
       </c>
+      <c r="E212" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F212" s="10" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G212" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212" s="10" t="s">
         <v>16</v>
@@ -9024,10 +8464,7 @@
         <v>18</v>
       </c>
       <c r="M212" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N212" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
@@ -9043,11 +8480,14 @@
       <c r="D213" s="28" t="s">
         <v>105</v>
       </c>
+      <c r="E213" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F213" s="10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G213" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" s="10" t="s">
         <v>16</v>
@@ -9059,10 +8499,7 @@
         <v>18</v>
       </c>
       <c r="M213" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N213" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
@@ -9078,11 +8515,14 @@
       <c r="D214" s="28" t="s">
         <v>105</v>
       </c>
+      <c r="E214" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F214" s="10" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G214" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J214" s="10" t="s">
         <v>16</v>
@@ -9094,10 +8534,7 @@
         <v>18</v>
       </c>
       <c r="M214" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N214" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -9113,8 +8550,11 @@
       <c r="D215" s="28" t="s">
         <v>105</v>
       </c>
+      <c r="E215" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F215" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G215" s="10">
         <v>1</v>
@@ -9129,10 +8569,7 @@
         <v>18</v>
       </c>
       <c r="M215" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N215" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
@@ -9166,10 +8603,7 @@
       <c r="L216" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M216" t="s">
-        <v>19</v>
-      </c>
-      <c r="N216" s="4" t="s">
+      <c r="M216" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9186,17 +8620,11 @@
       <c r="D217" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E217" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F217" s="10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G217" s="10">
-        <v>35</v>
-      </c>
-      <c r="H217" s="10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J217" s="10" t="s">
         <v>16</v>
@@ -9207,11 +8635,11 @@
       <c r="L217" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M217" t="s">
-        <v>19</v>
+      <c r="M217" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N217" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
@@ -9227,17 +8655,11 @@
       <c r="D218" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E218" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F218" s="10" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="G218" s="10">
-        <v>15</v>
-      </c>
-      <c r="H218" s="10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J218" s="10" t="s">
         <v>16</v>
@@ -9248,11 +8670,11 @@
       <c r="L218" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M218" t="s">
-        <v>25</v>
+      <c r="M218" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N218" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
@@ -9268,17 +8690,11 @@
       <c r="D219" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E219" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F219" s="10" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="G219" s="10">
-        <v>20</v>
-      </c>
-      <c r="H219" s="10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J219" s="10" t="s">
         <v>16</v>
@@ -9289,11 +8705,11 @@
       <c r="L219" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M219" t="s">
-        <v>19</v>
+      <c r="M219" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N219" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
@@ -9309,14 +8725,11 @@
       <c r="D220" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E220" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F220" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G220" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J220" s="10" t="s">
         <v>16</v>
@@ -9327,11 +8740,11 @@
       <c r="L220" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M220" t="s">
-        <v>19</v>
+      <c r="M220" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N220" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -9347,14 +8760,11 @@
       <c r="D221" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E221" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F221" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G221" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J221" s="10" t="s">
         <v>16</v>
@@ -9365,11 +8775,11 @@
       <c r="L221" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M221" t="s">
-        <v>19</v>
+      <c r="M221" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N221" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -9385,11 +8795,8 @@
       <c r="D222" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E222" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="F222" s="10" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="G222" s="10">
         <v>1</v>
@@ -9403,11 +8810,8 @@
       <c r="L222" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M222" t="s">
-        <v>19</v>
-      </c>
       <c r="N222" s="4" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -9424,13 +8828,16 @@
         <v>106</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G223" s="10">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H223" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J223" s="10" t="s">
         <v>16</v>
@@ -9441,10 +8848,7 @@
       <c r="L223" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M223" t="s">
-        <v>19</v>
-      </c>
-      <c r="N223" s="4" t="s">
+      <c r="M223" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9462,13 +8866,16 @@
         <v>106</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G224" s="10">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H224" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J224" s="10" t="s">
         <v>16</v>
@@ -9479,14 +8886,8 @@
       <c r="L224" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M224" t="s">
-        <v>19</v>
-      </c>
-      <c r="N224" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>136</v>
       </c>
@@ -9500,14 +8901,17 @@
         <v>106</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="G225" s="10">
         <v>20</v>
       </c>
+      <c r="H225" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="J225" s="10" t="s">
         <v>16</v>
       </c>
@@ -9517,14 +8921,11 @@
       <c r="L225" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M225" t="s">
-        <v>19</v>
-      </c>
-      <c r="N225" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M225" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>136</v>
       </c>
@@ -9538,13 +8939,16 @@
         <v>106</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G226" s="10">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="H226" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="J226" s="10" t="s">
         <v>16</v>
@@ -9555,14 +8959,11 @@
       <c r="L226" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M226" t="s">
-        <v>19</v>
-      </c>
-      <c r="N226" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M226" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>136</v>
       </c>
@@ -9579,10 +8980,10 @@
         <v>95</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G227" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J227" s="10" t="s">
         <v>16</v>
@@ -9593,14 +8994,11 @@
       <c r="L227" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M227" t="s">
-        <v>19</v>
-      </c>
-      <c r="N227" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M227" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>136</v>
       </c>
@@ -9617,7 +9015,7 @@
         <v>95</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="G228" s="10">
         <v>4</v>
@@ -9631,14 +9029,11 @@
       <c r="L228" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M228" t="s">
-        <v>19</v>
-      </c>
-      <c r="N228" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M228" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>136</v>
       </c>
@@ -9652,13 +9047,13 @@
         <v>106</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G229" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229" s="10" t="s">
         <v>16</v>
@@ -9669,14 +9064,11 @@
       <c r="L229" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M229" t="s">
-        <v>19</v>
-      </c>
-      <c r="N229" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M229" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>136</v>
       </c>
@@ -9690,13 +9082,13 @@
         <v>106</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G230" s="10">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J230" s="10" t="s">
         <v>16</v>
@@ -9707,14 +9099,11 @@
       <c r="L230" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M230" t="s">
-        <v>19</v>
-      </c>
-      <c r="N230" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M230" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>136</v>
       </c>
@@ -9728,13 +9117,13 @@
         <v>106</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G231" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J231" s="10" t="s">
         <v>16</v>
@@ -9748,11 +9137,8 @@
       <c r="M231" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N231" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>136</v>
       </c>
@@ -9766,13 +9152,13 @@
         <v>106</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G232" s="10">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J232" s="10" t="s">
         <v>16</v>
@@ -9783,14 +9169,11 @@
       <c r="L232" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M232" t="s">
-        <v>19</v>
-      </c>
-      <c r="N232" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M232" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>136</v>
       </c>
@@ -9804,13 +9187,13 @@
         <v>106</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G233" s="10">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J233" s="10" t="s">
         <v>16</v>
@@ -9821,14 +9204,11 @@
       <c r="L233" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M233" t="s">
-        <v>19</v>
-      </c>
-      <c r="N233" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M233" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>136</v>
       </c>
@@ -9842,13 +9222,13 @@
         <v>106</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G234" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J234" s="10" t="s">
         <v>16</v>
@@ -9859,14 +9239,11 @@
       <c r="L234" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M234" t="s">
-        <v>19</v>
-      </c>
-      <c r="N234" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M234" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>136</v>
       </c>
@@ -9880,13 +9257,13 @@
         <v>106</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G235" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J235" s="10" t="s">
         <v>16</v>
@@ -9897,14 +9274,11 @@
       <c r="L235" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M235" t="s">
-        <v>19</v>
-      </c>
-      <c r="N235" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M235" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>136</v>
       </c>
@@ -9921,10 +9295,10 @@
         <v>95</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G236" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" s="10" t="s">
         <v>16</v>
@@ -9935,14 +9309,11 @@
       <c r="L236" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M236" t="s">
-        <v>19</v>
-      </c>
-      <c r="N236" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M236" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>136</v>
       </c>
@@ -9959,10 +9330,10 @@
         <v>95</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G237" s="10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J237" s="10" t="s">
         <v>16</v>
@@ -9973,14 +9344,11 @@
       <c r="L237" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M237" t="s">
-        <v>19</v>
-      </c>
-      <c r="N237" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M237" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>136</v>
       </c>
@@ -9997,10 +9365,10 @@
         <v>30</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G238" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J238" s="10" t="s">
         <v>16</v>
@@ -10011,14 +9379,11 @@
       <c r="L238" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M238" t="s">
-        <v>19</v>
-      </c>
-      <c r="N238" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M238" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>136</v>
       </c>
@@ -10032,13 +9397,13 @@
         <v>106</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G239" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" s="10" t="s">
         <v>16</v>
@@ -10049,14 +9414,11 @@
       <c r="L239" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M239" t="s">
-        <v>19</v>
-      </c>
-      <c r="N239" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M239" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>136</v>
       </c>
@@ -10073,13 +9435,10 @@
         <v>30</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="G240" s="10">
-        <v>20</v>
-      </c>
-      <c r="H240" s="10" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J240" s="10" t="s">
         <v>16</v>
@@ -10090,10 +9449,7 @@
       <c r="L240" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M240" t="s">
-        <v>19</v>
-      </c>
-      <c r="N240" s="4" t="s">
+      <c r="M240" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10110,11 +9466,14 @@
       <c r="D241" s="29" t="s">
         <v>106</v>
       </c>
+      <c r="E241" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F241" s="10" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G241" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J241" s="10" t="s">
         <v>16</v>
@@ -10126,10 +9485,7 @@
         <v>18</v>
       </c>
       <c r="M241" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N241" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -10145,8 +9501,11 @@
       <c r="D242" s="29" t="s">
         <v>106</v>
       </c>
+      <c r="E242" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F242" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G242" s="10">
         <v>1</v>
@@ -10161,10 +9520,7 @@
         <v>18</v>
       </c>
       <c r="M242" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N242" s="4" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -10180,11 +9536,14 @@
       <c r="D243" s="29" t="s">
         <v>106</v>
       </c>
+      <c r="E243" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F243" s="10" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G243" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J243" s="10" t="s">
         <v>16</v>
@@ -10196,10 +9555,7 @@
         <v>18</v>
       </c>
       <c r="M243" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N243" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -10215,11 +9571,14 @@
       <c r="D244" s="29" t="s">
         <v>106</v>
       </c>
+      <c r="E244" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F244" s="10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G244" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J244" s="10" t="s">
         <v>16</v>
@@ -10231,10 +9590,7 @@
         <v>18</v>
       </c>
       <c r="M244" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N244" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -10250,11 +9606,14 @@
       <c r="D245" s="29" t="s">
         <v>106</v>
       </c>
+      <c r="E245" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="F245" s="10" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G245" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J245" s="10" t="s">
         <v>16</v>
@@ -10266,10 +9625,7 @@
         <v>18</v>
       </c>
       <c r="M245" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N245" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -10285,8 +9641,11 @@
       <c r="D246" s="29" t="s">
         <v>106</v>
       </c>
+      <c r="E246" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F246" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G246" s="10">
         <v>1</v>
@@ -10301,10 +9660,7 @@
         <v>18</v>
       </c>
       <c r="M246" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N246" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -10338,10 +9694,7 @@
       <c r="L247" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M247" t="s">
-        <v>19</v>
-      </c>
-      <c r="N247" s="4" t="s">
+      <c r="M247" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10355,7 +9708,7 @@
       <c r="C248" s="10">
         <v>1</v>
       </c>
-      <c r="D248" s="22" t="s">
+      <c r="D248" s="30" t="s">
         <v>108</v>
       </c>
       <c r="F248" s="10" t="s">
@@ -10390,7 +9743,7 @@
       <c r="C249" s="10">
         <v>1</v>
       </c>
-      <c r="D249" s="22" t="s">
+      <c r="D249" s="30" t="s">
         <v>108</v>
       </c>
       <c r="F249" s="10" t="s">
@@ -10425,7 +9778,7 @@
       <c r="C250" s="10">
         <v>1</v>
       </c>
-      <c r="D250" s="22" t="s">
+      <c r="D250" s="30" t="s">
         <v>108</v>
       </c>
       <c r="F250" s="10" t="s">
@@ -10444,14 +9797,18 @@
         <v>18</v>
       </c>
       <c r="M250" s="10" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="N250" s="4" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N250">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10610,4 +9967,323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6f821667-dc32-45c3-a292-e0c8028e4643" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2c8c709e-1982-48dc-b855-e25b1b3a4518">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100277C7C466BA2334796C5FFC1EA441B65" ma:contentTypeVersion="18" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="337ceec0b10faeb62999d96d30b7bd49">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d711dfe6-0632-452e-83db-055fc5970243" xmlns:ns3="2c8c709e-1982-48dc-b855-e25b1b3a4518" xmlns:ns4="6f821667-dc32-45c3-a292-e0c8028e4643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ac22d9fbcfa00e7228a2bd13acaa16f" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="d711dfe6-0632-452e-83db-055fc5970243"/>
+    <xsd:import namespace="2c8c709e-1982-48dc-b855-e25b1b3a4518"/>
+    <xsd:import namespace="6f821667-dc32-45c3-a292-e0c8028e4643"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d711dfe6-0632-452e-83db-055fc5970243" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2c8c709e-1982-48dc-b855-e25b1b3a4518" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2f0c148f-5ca2-4a38-b716-16d776545e11" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6f821667-dc32-45c3-a292-e0c8028e4643" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d6216518-f20c-4c6e-b2fa-bd0667b4c271}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6f821667-dc32-45c3-a292-e0c8028e4643">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C2003A-7F1B-499A-909D-5C4F907C88CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6f821667-dc32-45c3-a292-e0c8028e4643"/>
+    <ds:schemaRef ds:uri="2c8c709e-1982-48dc-b855-e25b1b3a4518"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D169D772-AEC4-4FE2-88FC-2FE58C086142}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05E48B56-FBD6-41CC-B7A8-E6C5D86868D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d711dfe6-0632-452e-83db-055fc5970243"/>
+    <ds:schemaRef ds:uri="2c8c709e-1982-48dc-b855-e25b1b3a4518"/>
+    <ds:schemaRef ds:uri="6f821667-dc32-45c3-a292-e0c8028e4643"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>